--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_9_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3162822.165295008</v>
+        <v>3162118.896453255</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2435141.444261334</v>
+        <v>2435141.444261335</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736532</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7555984.756442535</v>
+        <v>7555984.756442534</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.5193474360557</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="X2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,35 +756,35 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V3" t="n">
         <v>10.5193474360557</v>
       </c>
       <c r="W3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,61 +826,61 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="U4" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5096686531243394</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,58 +1063,58 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="U7" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="H7" t="n">
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>97.59782943789268</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7293992974318</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>135.7293992974318</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>121.9329941289853</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>99.53748833164443</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>81.39848696832989</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>60.09378870120875</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>265.3075798716789</v>
       </c>
       <c r="E11" t="n">
-        <v>287.0497174415844</v>
+        <v>9.715322713298349</v>
       </c>
       <c r="F11" t="n">
         <v>306.2215335295616</v>
       </c>
       <c r="G11" t="n">
-        <v>307.6795577535196</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29.28250915827118</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.97904982868258</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.73892515350784</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.2468323723384</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>148.510318175899</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>229.8213361096483</v>
       </c>
       <c r="W11" t="n">
         <v>255.1214355876052</v>
@@ -1467,7 +1467,7 @@
         <v>96.48269082187281</v>
       </c>
       <c r="I12" t="n">
-        <v>58.94372301695104</v>
+        <v>58.94372301695108</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>43.39889863497659</v>
+        <v>43.39889863497665</v>
       </c>
       <c r="S12" t="n">
         <v>146.5483938335746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.93166974416629</v>
+        <v>77.93166974416627</v>
       </c>
       <c r="C13" t="n">
-        <v>64.13166458956677</v>
+        <v>64.13166458956675</v>
       </c>
       <c r="D13" t="n">
-        <v>47.75302898714516</v>
+        <v>47.75302898714514</v>
       </c>
       <c r="E13" t="n">
-        <v>46.70077884292461</v>
+        <v>46.70077884292459</v>
       </c>
       <c r="F13" t="n">
-        <v>47.16770317111092</v>
+        <v>47.1677031711109</v>
       </c>
       <c r="G13" t="n">
-        <v>63.22922794139036</v>
+        <v>63.22922794139034</v>
       </c>
       <c r="H13" t="n">
-        <v>52.09542773201381</v>
+        <v>52.0954277320138</v>
       </c>
       <c r="I13" t="n">
-        <v>32.56202631693988</v>
+        <v>32.56202631693991</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65316244581147</v>
+        <v>34.6531624458115</v>
       </c>
       <c r="S13" t="n">
         <v>104.0694094242695</v>
       </c>
       <c r="T13" t="n">
-        <v>126.1481671536342</v>
+        <v>126.1481671536341</v>
       </c>
       <c r="U13" t="n">
         <v>180.5185639741813</v>
@@ -1591,7 +1591,7 @@
         <v>179.5066922144051</v>
       </c>
       <c r="X13" t="n">
-        <v>125.1517942102083</v>
+        <v>125.1517942102082</v>
       </c>
       <c r="Y13" t="n">
         <v>116.0266619662759</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.3149588694693</v>
+        <v>286.3149588694692</v>
       </c>
       <c r="C14" t="n">
-        <v>274.326275827151</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>265.3075798716789</v>
       </c>
       <c r="E14" t="n">
-        <v>287.0497174415845</v>
+        <v>287.0497174415844</v>
       </c>
       <c r="F14" t="n">
-        <v>306.2215335295617</v>
+        <v>306.2215335295616</v>
       </c>
       <c r="G14" t="n">
-        <v>307.6795577535197</v>
+        <v>307.6795577535196</v>
       </c>
       <c r="H14" t="n">
         <v>220.8378271344259</v>
       </c>
       <c r="I14" t="n">
-        <v>2.105787233888389</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.73892515350784</v>
       </c>
       <c r="T14" t="n">
-        <v>116.2468323723385</v>
+        <v>116.2468323723384</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>148.510318175899</v>
       </c>
       <c r="V14" t="n">
-        <v>229.8213361096484</v>
+        <v>229.8213361096483</v>
       </c>
       <c r="W14" t="n">
-        <v>255.1214355876053</v>
+        <v>255.1214355876052</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>285.8182916165507</v>
+        <v>77.69353147650367</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.48269082187281</v>
       </c>
       <c r="I15" t="n">
-        <v>58.94372301695106</v>
+        <v>58.94372301695107</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.93166974416634</v>
+        <v>77.93166974416627</v>
       </c>
       <c r="C16" t="n">
-        <v>64.13166458956682</v>
+        <v>64.13166458956675</v>
       </c>
       <c r="D16" t="n">
-        <v>47.75302898714521</v>
+        <v>47.75302898714514</v>
       </c>
       <c r="E16" t="n">
-        <v>46.70077884292466</v>
+        <v>46.70077884292459</v>
       </c>
       <c r="F16" t="n">
-        <v>47.16770317111097</v>
+        <v>47.1677031711109</v>
       </c>
       <c r="G16" t="n">
-        <v>63.22922794139041</v>
+        <v>63.22922794139034</v>
       </c>
       <c r="H16" t="n">
-        <v>52.09542773201387</v>
+        <v>52.0954277320138</v>
       </c>
       <c r="I16" t="n">
-        <v>32.56202631693996</v>
+        <v>32.5620263169399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65316244581156</v>
+        <v>34.6531624458115</v>
       </c>
       <c r="S16" t="n">
         <v>104.0694094242695</v>
       </c>
       <c r="T16" t="n">
-        <v>126.1481671536342</v>
+        <v>126.1481671536341</v>
       </c>
       <c r="U16" t="n">
         <v>180.5185639741813</v>
@@ -1825,13 +1825,13 @@
         <v>154.3398061437919</v>
       </c>
       <c r="W16" t="n">
-        <v>179.5066922144052</v>
+        <v>179.5066922144051</v>
       </c>
       <c r="X16" t="n">
-        <v>125.1517942102083</v>
+        <v>125.1517942102082</v>
       </c>
       <c r="Y16" t="n">
-        <v>116.026661966276</v>
+        <v>116.0266619662759</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>252.1591956875938</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6172199115517</v>
+        <v>253.6172199115518</v>
       </c>
       <c r="H17" t="n">
         <v>166.7754892924581</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.67658731154002</v>
+        <v>16.67658731154003</v>
       </c>
       <c r="T17" t="n">
         <v>62.18449453037059</v>
@@ -1910,7 +1910,7 @@
         <v>220.359355978384</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.7559537745828</v>
+        <v>231.7559537745822</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.48269082187281</v>
       </c>
       <c r="I18" t="n">
-        <v>58.94372301695106</v>
+        <v>58.94372301695107</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.00707158230166</v>
+        <v>101.1794392470764</v>
       </c>
       <c r="T19" t="n">
         <v>72.08582931166634</v>
       </c>
       <c r="U19" t="n">
-        <v>177.6285937969883</v>
+        <v>126.4562261322135</v>
       </c>
       <c r="V19" t="n">
         <v>100.2774683018241</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>51.17236766477482</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>9.16689009942254</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.00707158230166</v>
+        <v>101.1794392470765</v>
       </c>
       <c r="T22" t="n">
         <v>72.08582931166634</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.67658731154003</v>
+        <v>16.67658731154001</v>
       </c>
       <c r="T23" t="n">
         <v>62.18449453037059</v>
@@ -2415,7 +2415,7 @@
         <v>96.48269082187281</v>
       </c>
       <c r="I24" t="n">
-        <v>58.94372301695106</v>
+        <v>58.94372301695105</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>43.39889863497663</v>
+        <v>43.39889863497662</v>
       </c>
       <c r="S24" t="n">
         <v>146.5483938335746</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.1723676647748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>50.00707158230166</v>
@@ -2536,7 +2536,7 @@
         <v>100.2774683018241</v>
       </c>
       <c r="W25" t="n">
-        <v>125.4443543724373</v>
+        <v>176.6167220372121</v>
       </c>
       <c r="X25" t="n">
         <v>71.08945636824043</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.3149588694692</v>
+        <v>286.3149588694693</v>
       </c>
       <c r="C26" t="n">
-        <v>274.3262758271509</v>
+        <v>274.326275827151</v>
       </c>
       <c r="D26" t="n">
-        <v>265.3075798716789</v>
+        <v>265.307579871679</v>
       </c>
       <c r="E26" t="n">
         <v>287.0497174415844</v>
@@ -2573,7 +2573,7 @@
         <v>220.8378271344259</v>
       </c>
       <c r="I26" t="n">
-        <v>48.97904982868259</v>
+        <v>48.97904982868258</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>96.48269082187281</v>
       </c>
       <c r="I27" t="n">
-        <v>58.94372301695108</v>
+        <v>58.94372301695105</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.39889863497665</v>
+        <v>43.39889863497662</v>
       </c>
       <c r="S27" t="n">
         <v>146.5483938335746</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.93166974416629</v>
+        <v>77.9316697441663</v>
       </c>
       <c r="C28" t="n">
-        <v>64.13166458956677</v>
+        <v>64.13166458956678</v>
       </c>
       <c r="D28" t="n">
-        <v>47.75302898714516</v>
+        <v>47.75302898714517</v>
       </c>
       <c r="E28" t="n">
-        <v>46.70077884292461</v>
+        <v>46.70077884292462</v>
       </c>
       <c r="F28" t="n">
-        <v>47.16770317111092</v>
+        <v>47.16770317111093</v>
       </c>
       <c r="G28" t="n">
-        <v>63.22922794139036</v>
+        <v>63.22922794139037</v>
       </c>
       <c r="H28" t="n">
         <v>52.09542773201382</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65316244581152</v>
+        <v>34.65316244581151</v>
       </c>
       <c r="S28" t="n">
         <v>104.0694094242695</v>
@@ -2779,7 +2779,7 @@
         <v>125.1517942102083</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.0266619662759</v>
+        <v>116.026661966276</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.3149588694691</v>
+        <v>286.3149588694693</v>
       </c>
       <c r="C29" t="n">
-        <v>274.3262758271509</v>
+        <v>274.326275827151</v>
       </c>
       <c r="D29" t="n">
-        <v>265.3075798716789</v>
+        <v>265.307579871679</v>
       </c>
       <c r="E29" t="n">
         <v>287.0497174415844</v>
@@ -2807,10 +2807,10 @@
         <v>307.6795577535196</v>
       </c>
       <c r="H29" t="n">
-        <v>220.8378271344258</v>
+        <v>220.8378271344265</v>
       </c>
       <c r="I29" t="n">
-        <v>48.97904982868251</v>
+        <v>48.97904982868258</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.73892515350778</v>
+        <v>70.73892515350785</v>
       </c>
       <c r="T29" t="n">
-        <v>116.2468323723383</v>
+        <v>116.2468323723384</v>
       </c>
       <c r="U29" t="n">
-        <v>148.5103181758989</v>
+        <v>148.510318175899</v>
       </c>
       <c r="V29" t="n">
         <v>229.8213361096483</v>
@@ -2858,7 +2858,7 @@
         <v>274.4216938203518</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.8182916165505</v>
+        <v>285.8182916165506</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.93166974416623</v>
+        <v>77.9316697441663</v>
       </c>
       <c r="C31" t="n">
-        <v>64.13166458956671</v>
+        <v>64.13166458956678</v>
       </c>
       <c r="D31" t="n">
-        <v>47.7530289871451</v>
+        <v>47.75302898714517</v>
       </c>
       <c r="E31" t="n">
-        <v>46.70077884292455</v>
+        <v>46.70077884292462</v>
       </c>
       <c r="F31" t="n">
-        <v>47.16770317111086</v>
+        <v>47.16770317111093</v>
       </c>
       <c r="G31" t="n">
-        <v>63.2292279413903</v>
+        <v>63.22922794139037</v>
       </c>
       <c r="H31" t="n">
-        <v>52.09542773201376</v>
+        <v>52.09542773201383</v>
       </c>
       <c r="I31" t="n">
-        <v>32.56202631693985</v>
+        <v>32.56202631693992</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65316244581145</v>
+        <v>34.65316244581152</v>
       </c>
       <c r="S31" t="n">
-        <v>104.0694094242694</v>
+        <v>104.0694094242695</v>
       </c>
       <c r="T31" t="n">
-        <v>126.1481671536341</v>
+        <v>126.1481671536342</v>
       </c>
       <c r="U31" t="n">
-        <v>180.5185639741812</v>
+        <v>180.5185639741813</v>
       </c>
       <c r="V31" t="n">
-        <v>154.3398061437918</v>
+        <v>154.3398061437919</v>
       </c>
       <c r="W31" t="n">
         <v>179.5066922144051</v>
       </c>
       <c r="X31" t="n">
-        <v>125.1517942102082</v>
+        <v>125.1517942102083</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.0266619662759</v>
+        <v>116.026661966276</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>254.2889278483787</v>
+        <v>254.2889278483788</v>
       </c>
       <c r="C32" t="n">
-        <v>242.3002448060605</v>
+        <v>242.3002448060606</v>
       </c>
       <c r="D32" t="n">
         <v>233.2815488505885</v>
       </c>
       <c r="E32" t="n">
-        <v>255.023686420494</v>
+        <v>255.0236864204941</v>
       </c>
       <c r="F32" t="n">
-        <v>274.1955025084711</v>
+        <v>274.1955025084712</v>
       </c>
       <c r="G32" t="n">
-        <v>275.6535267324292</v>
+        <v>275.6535267324293</v>
       </c>
       <c r="H32" t="n">
-        <v>188.8117961133354</v>
+        <v>188.8117961133355</v>
       </c>
       <c r="I32" t="n">
-        <v>16.95301880759209</v>
+        <v>16.95301880759217</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.71289413241738</v>
+        <v>38.71289413241746</v>
       </c>
       <c r="T32" t="n">
-        <v>84.22080135124793</v>
+        <v>84.22080135124801</v>
       </c>
       <c r="U32" t="n">
-        <v>116.4842871548085</v>
+        <v>116.4842871548086</v>
       </c>
       <c r="V32" t="n">
         <v>197.7953050885579</v>
@@ -3092,10 +3092,10 @@
         <v>223.0954045665148</v>
       </c>
       <c r="X32" t="n">
-        <v>242.3956627992614</v>
+        <v>242.3956627992615</v>
       </c>
       <c r="Y32" t="n">
-        <v>253.7922605954601</v>
+        <v>253.7922605954602</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.90563872307581</v>
+        <v>45.9056387230759</v>
       </c>
       <c r="C34" t="n">
-        <v>32.10563356847629</v>
+        <v>32.10563356847638</v>
       </c>
       <c r="D34" t="n">
-        <v>15.72699796605468</v>
+        <v>15.72699796605477</v>
       </c>
       <c r="E34" t="n">
-        <v>14.67474782183413</v>
+        <v>14.67474782183422</v>
       </c>
       <c r="F34" t="n">
-        <v>15.14167215002044</v>
+        <v>15.14167215002053</v>
       </c>
       <c r="G34" t="n">
-        <v>31.20319692029988</v>
+        <v>31.20319692029997</v>
       </c>
       <c r="H34" t="n">
-        <v>20.06939671092334</v>
+        <v>20.06939671092342</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5359952958494354</v>
+        <v>0.5359952958495207</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.62713142472103</v>
+        <v>2.627131424721115</v>
       </c>
       <c r="S34" t="n">
-        <v>72.04337840317901</v>
+        <v>72.04337840317909</v>
       </c>
       <c r="T34" t="n">
-        <v>94.12213613254369</v>
+        <v>94.12213613254377</v>
       </c>
       <c r="U34" t="n">
-        <v>148.4925329530908</v>
+        <v>148.4925329530909</v>
       </c>
       <c r="V34" t="n">
-        <v>122.3137751227014</v>
+        <v>122.3137751227015</v>
       </c>
       <c r="W34" t="n">
         <v>147.4806611933147</v>
       </c>
       <c r="X34" t="n">
-        <v>93.12576318911778</v>
+        <v>93.12576318911786</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.00063094518546</v>
+        <v>84.00063094518555</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.67658731154003</v>
+        <v>16.67658731154002</v>
       </c>
       <c r="T35" t="n">
         <v>62.18449453037059</v>
@@ -3424,7 +3424,7 @@
         <v>23.86933190219847</v>
       </c>
       <c r="C37" t="n">
-        <v>61.24169441237376</v>
+        <v>10.06932674759895</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>71.08945636824043</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.96432412430812</v>
+        <v>113.1366917890829</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>232.2526210275014</v>
       </c>
       <c r="C38" t="n">
-        <v>220.2639379851831</v>
+        <v>220.2639379851832</v>
       </c>
       <c r="D38" t="n">
-        <v>211.2452420297111</v>
+        <v>211.2452420297112</v>
       </c>
       <c r="E38" t="n">
-        <v>232.9873795996166</v>
+        <v>232.9873795996167</v>
       </c>
       <c r="F38" t="n">
-        <v>252.1591956875938</v>
+        <v>252.1591956875939</v>
       </c>
       <c r="G38" t="n">
-        <v>253.6172199115518</v>
+        <v>253.6172199115519</v>
       </c>
       <c r="H38" t="n">
         <v>166.7754892924581</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S38" t="n">
-        <v>16.67658731154003</v>
+        <v>16.67658731154008</v>
       </c>
       <c r="T38" t="n">
-        <v>62.18449453037059</v>
+        <v>62.18449453037065</v>
       </c>
       <c r="U38" t="n">
-        <v>94.44798033393118</v>
+        <v>94.44798033393124</v>
       </c>
       <c r="V38" t="n">
-        <v>175.7589982676805</v>
+        <v>175.7589982676806</v>
       </c>
       <c r="W38" t="n">
-        <v>201.0590977456374</v>
+        <v>201.0590977456375</v>
       </c>
       <c r="X38" t="n">
-        <v>220.359355978384</v>
+        <v>220.3593559783841</v>
       </c>
       <c r="Y38" t="n">
         <v>231.7559537745828</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.86933190219847</v>
+        <v>23.86933190219852</v>
       </c>
       <c r="C40" t="n">
-        <v>10.06932674759895</v>
+        <v>10.06932674759901</v>
       </c>
       <c r="D40" t="n">
-        <v>51.17236766477482</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9.16689009942254</v>
+        <v>9.166890099422597</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>20.30122150292989</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.00707158230166</v>
+        <v>50.00707158230171</v>
       </c>
       <c r="T40" t="n">
-        <v>72.08582931166634</v>
+        <v>102.9569754735108</v>
       </c>
       <c r="U40" t="n">
         <v>126.4562261322135</v>
@@ -3721,13 +3721,13 @@
         <v>100.2774683018241</v>
       </c>
       <c r="W40" t="n">
-        <v>125.4443543724373</v>
+        <v>125.4443543724374</v>
       </c>
       <c r="X40" t="n">
-        <v>71.08945636824043</v>
+        <v>71.08945636824049</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.96432412430812</v>
+        <v>61.96432412430818</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>263.4228336934449</v>
+        <v>263.4228336934444</v>
       </c>
       <c r="C41" t="n">
-        <v>251.4341506511266</v>
+        <v>251.4341506511261</v>
       </c>
       <c r="D41" t="n">
-        <v>242.4154546956546</v>
+        <v>242.4154546956541</v>
       </c>
       <c r="E41" t="n">
-        <v>264.1575922655601</v>
+        <v>264.1575922655596</v>
       </c>
       <c r="F41" t="n">
-        <v>283.3294083535373</v>
+        <v>131.7338636078281</v>
       </c>
       <c r="G41" t="n">
-        <v>284.7874325774953</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>197.9457019584016</v>
+        <v>197.9457019584011</v>
       </c>
       <c r="I41" t="n">
-        <v>26.08692465265823</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>47.84679997748303</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35470719631407</v>
+        <v>93.3547071963136</v>
       </c>
       <c r="U41" t="n">
-        <v>125.6181929998747</v>
+        <v>125.6181929998742</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>206.9292109336235</v>
       </c>
       <c r="W41" t="n">
-        <v>232.2293104115809</v>
+        <v>232.2293104115804</v>
       </c>
       <c r="X41" t="n">
-        <v>43.83567757956842</v>
+        <v>251.529568644327</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.9261664405263</v>
+        <v>262.9261664405258</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.03954456814195</v>
+        <v>55.03954456814148</v>
       </c>
       <c r="C43" t="n">
-        <v>41.23953941354243</v>
+        <v>41.23953941354196</v>
       </c>
       <c r="D43" t="n">
-        <v>24.86090381112082</v>
+        <v>24.86090381112035</v>
       </c>
       <c r="E43" t="n">
-        <v>23.80865366690027</v>
+        <v>23.8086536668998</v>
       </c>
       <c r="F43" t="n">
-        <v>24.27557799508658</v>
+        <v>24.27557799508611</v>
       </c>
       <c r="G43" t="n">
-        <v>40.33710276536602</v>
+        <v>40.33710276536555</v>
       </c>
       <c r="H43" t="n">
-        <v>29.20330255598948</v>
+        <v>29.20330255598901</v>
       </c>
       <c r="I43" t="n">
-        <v>9.669901140915574</v>
+        <v>9.669901140915105</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.76103726978717</v>
+        <v>11.7610372697867</v>
       </c>
       <c r="S43" t="n">
-        <v>81.17728424824514</v>
+        <v>81.17728424824467</v>
       </c>
       <c r="T43" t="n">
-        <v>103.2560419776098</v>
+        <v>103.2560419776094</v>
       </c>
       <c r="U43" t="n">
-        <v>157.626438798157</v>
+        <v>157.6264387981565</v>
       </c>
       <c r="V43" t="n">
-        <v>131.4476809677676</v>
+        <v>131.4476809677671</v>
       </c>
       <c r="W43" t="n">
-        <v>156.6145670383808</v>
+        <v>156.6145670383803</v>
       </c>
       <c r="X43" t="n">
-        <v>102.2596690341839</v>
+        <v>102.2596690341834</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.1345367902516</v>
+        <v>93.13453679025113</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>263.4228336934449</v>
+        <v>263.4228336934444</v>
       </c>
       <c r="C44" t="n">
-        <v>251.4341506511266</v>
+        <v>251.4341506511261</v>
       </c>
       <c r="D44" t="n">
-        <v>242.4154546956546</v>
+        <v>242.4154546956541</v>
       </c>
       <c r="E44" t="n">
-        <v>264.1575922655601</v>
+        <v>112.562047519851</v>
       </c>
       <c r="F44" t="n">
-        <v>283.3294083535373</v>
+        <v>283.3294083535368</v>
       </c>
       <c r="G44" t="n">
-        <v>284.7874325774953</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>35.75971811247342</v>
+        <v>197.9457019584011</v>
       </c>
       <c r="I44" t="n">
-        <v>26.08692465265823</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.84679997748351</v>
+        <v>47.84679997748303</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>93.3547071963136</v>
       </c>
       <c r="U44" t="n">
-        <v>125.6181929998747</v>
+        <v>125.6181929998742</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>206.9292109336235</v>
       </c>
       <c r="W44" t="n">
-        <v>232.2293104115809</v>
+        <v>232.2293104115804</v>
       </c>
       <c r="X44" t="n">
-        <v>251.5295686443275</v>
+        <v>251.529568644327</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.9261664405263</v>
+        <v>262.9261664405258</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.03954456814195</v>
+        <v>55.03954456814148</v>
       </c>
       <c r="C46" t="n">
-        <v>41.23953941354243</v>
+        <v>41.23953941354196</v>
       </c>
       <c r="D46" t="n">
-        <v>24.86090381112082</v>
+        <v>24.86090381112035</v>
       </c>
       <c r="E46" t="n">
-        <v>23.80865366690027</v>
+        <v>23.8086536668998</v>
       </c>
       <c r="F46" t="n">
-        <v>24.27557799508658</v>
+        <v>24.27557799508611</v>
       </c>
       <c r="G46" t="n">
-        <v>40.33710276536602</v>
+        <v>40.33710276536555</v>
       </c>
       <c r="H46" t="n">
-        <v>29.20330255598948</v>
+        <v>29.20330255598901</v>
       </c>
       <c r="I46" t="n">
-        <v>9.669901140915574</v>
+        <v>9.669901140915105</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.76103726978717</v>
+        <v>11.7610372697867</v>
       </c>
       <c r="S46" t="n">
-        <v>81.17728424824514</v>
+        <v>81.17728424824467</v>
       </c>
       <c r="T46" t="n">
-        <v>103.2560419776098</v>
+        <v>103.2560419776094</v>
       </c>
       <c r="U46" t="n">
-        <v>157.626438798157</v>
+        <v>157.6264387981565</v>
       </c>
       <c r="V46" t="n">
-        <v>131.4476809677676</v>
+        <v>131.4476809677671</v>
       </c>
       <c r="W46" t="n">
-        <v>156.6145670383808</v>
+        <v>156.6145670383803</v>
       </c>
       <c r="X46" t="n">
-        <v>102.2596690341839</v>
+        <v>102.2596690341834</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.1345367902516</v>
+        <v>93.13453679025113</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D2" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E2" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F2" t="n">
         <v>13.01901823983628</v>
@@ -4328,7 +4328,7 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J2" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K2" t="n">
         <v>12.77895294797866</v>
@@ -4340,40 +4340,40 @@
         <v>12.77895294797866</v>
       </c>
       <c r="N2" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.60247016152901</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="V2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="W2" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="X2" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="3">
@@ -4386,22 +4386,22 @@
         <v>13.01901823983628</v>
       </c>
       <c r="C3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
@@ -4410,16 +4410,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K3" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L3" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M3" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N3" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O3" t="n">
         <v>35.94826950786519</v>
@@ -4431,22 +4431,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U3" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V3" t="n">
-        <v>37.14618325065221</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W3" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X3" t="n">
         <v>13.01901823983628</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F4" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G4" t="n">
         <v>0.9554357344283108</v>
@@ -4492,46 +4492,46 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L4" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M4" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N4" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="O4" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T4" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U4" t="n">
         <v>25.08260074524424</v>
       </c>
       <c r="V4" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W4" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="5">
@@ -4550,16 +4550,16 @@
         <v>23.64462171059961</v>
       </c>
       <c r="E5" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F5" t="n">
-        <v>13.53383506117399</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G5" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H5" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I5" t="n">
         <v>0.9554357344283108</v>
@@ -4571,16 +4571,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L5" t="n">
-        <v>24.60247016152901</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M5" t="n">
-        <v>36.42598737507935</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N5" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P5" t="n">
         <v>47.77178672141554</v>
@@ -4589,13 +4589,13 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T5" t="n">
         <v>35.70820421600757</v>
-      </c>
-      <c r="S5" t="n">
-        <v>35.70820421600757</v>
-      </c>
-      <c r="T5" t="n">
-        <v>23.64462171059961</v>
       </c>
       <c r="U5" t="n">
         <v>23.64462171059961</v>
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="C6" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="D6" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="E6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="M6" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="O6" t="n">
         <v>24.60247016152901</v>
       </c>
-      <c r="L6" t="n">
-        <v>24.60247016152901</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="N6" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="O6" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="P6" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
@@ -4674,22 +4674,22 @@
         <v>35.70820421600757</v>
       </c>
       <c r="T6" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U6" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V6" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W6" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X6" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F7" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G7" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H7" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I7" t="n">
         <v>0.9554357344283108</v>
@@ -4729,16 +4729,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L7" t="n">
-        <v>24.60247016152901</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M7" t="n">
         <v>24.60247016152901</v>
       </c>
       <c r="N7" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O7" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
@@ -4747,28 +4747,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T7" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V7" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="C8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="D8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="E8" t="n">
-        <v>315.1789073548413</v>
+        <v>33.03272109862812</v>
       </c>
       <c r="F8" t="n">
-        <v>178.0785040241021</v>
+        <v>22.92193444920251</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
         <v>10.85835194379454</v>
@@ -4802,22 +4802,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K8" t="n">
-        <v>145.230457248252</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L8" t="n">
-        <v>279.6025625527094</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6025625527094</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N8" t="n">
-        <v>413.9746678571669</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O8" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P8" t="n">
         <v>542.9175971897271</v>
@@ -4826,28 +4826,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S8" t="n">
-        <v>315.1789073548413</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T8" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="U8" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="V8" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W8" t="n">
-        <v>315.1789073548413</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="X8" t="n">
-        <v>315.1789073548413</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.1789073548413</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.4900074472222</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C9" t="n">
-        <v>245.4900074472222</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="D9" t="n">
-        <v>245.4900074472222</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="E9" t="n">
-        <v>245.4900074472222</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="F9" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G9" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H9" t="n">
         <v>10.85835194379454</v>
@@ -4881,22 +4881,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K9" t="n">
-        <v>205.4846037813581</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L9" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M9" t="n">
-        <v>408.5454918852696</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N9" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O9" t="n">
-        <v>542.9175971897271</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="P9" t="n">
         <v>542.9175971897271</v>
@@ -4905,28 +4905,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>382.5904107779613</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T9" t="n">
-        <v>382.5904107779613</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U9" t="n">
-        <v>382.5904107779613</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V9" t="n">
-        <v>382.5904107779613</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W9" t="n">
-        <v>382.5904107779613</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X9" t="n">
-        <v>382.5904107779613</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y9" t="n">
-        <v>382.5904107779613</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.015993860361</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="C10" t="n">
-        <v>208.015993860361</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="D10" t="n">
-        <v>208.015993860361</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="E10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4981,31 +4981,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>482.2168005218393</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S10" t="n">
-        <v>345.1163971911002</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="T10" t="n">
-        <v>208.015993860361</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="U10" t="n">
-        <v>208.015993860361</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="V10" t="n">
-        <v>208.015993860361</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="W10" t="n">
-        <v>208.015993860361</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="X10" t="n">
-        <v>208.015993860361</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.015993860361</v>
+        <v>230.1794491819377</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1537.724903297925</v>
+        <v>966.6972145995464</v>
       </c>
       <c r="C11" t="n">
-        <v>1260.627654987672</v>
+        <v>689.5999662892929</v>
       </c>
       <c r="D11" t="n">
-        <v>992.6402005718344</v>
+        <v>421.6125118734556</v>
       </c>
       <c r="E11" t="n">
-        <v>702.6909910348802</v>
+        <v>411.7990545872956</v>
       </c>
       <c r="F11" t="n">
-        <v>393.3763107019895</v>
+        <v>102.4843742544051</v>
       </c>
       <c r="G11" t="n">
-        <v>82.5888786277269</v>
+        <v>102.4843742544051</v>
       </c>
       <c r="H11" t="n">
-        <v>53.0105865486651</v>
+        <v>102.4843742544051</v>
       </c>
       <c r="I11" t="n">
-        <v>53.0105865486651</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J11" t="n">
-        <v>164.9414864248697</v>
+        <v>164.9414864248701</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9301081238263</v>
+        <v>464.9301081238265</v>
       </c>
       <c r="L11" t="n">
-        <v>887.0625270490175</v>
+        <v>887.0625270490179</v>
       </c>
       <c r="M11" t="n">
         <v>1362.915837673545</v>
@@ -5057,34 +5057,34 @@
         <v>2209.475188794457</v>
       </c>
       <c r="P11" t="n">
-        <v>2505.289313206308</v>
+        <v>2505.289313206307</v>
       </c>
       <c r="Q11" t="n">
-        <v>2650.529327433255</v>
+        <v>2650.529327433254</v>
       </c>
       <c r="R11" t="n">
-        <v>2650.529327433255</v>
+        <v>2650.529327433254</v>
       </c>
       <c r="S11" t="n">
-        <v>2650.529327433255</v>
+        <v>2579.075867682236</v>
       </c>
       <c r="T11" t="n">
-        <v>2650.529327433255</v>
+        <v>2461.654824881894</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.529327433255</v>
+        <v>2311.644402481997</v>
       </c>
       <c r="V11" t="n">
-        <v>2650.529327433255</v>
+        <v>2079.501638734877</v>
       </c>
       <c r="W11" t="n">
-        <v>2392.830907647795</v>
+        <v>1821.803218949417</v>
       </c>
       <c r="X11" t="n">
-        <v>2115.637277526228</v>
+        <v>1544.609588827849</v>
       </c>
       <c r="Y11" t="n">
-        <v>1826.931932459005</v>
+        <v>1255.904243760627</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I12" t="n">
-        <v>53.0105865486651</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J12" t="n">
-        <v>137.0481705151334</v>
+        <v>137.0481705151333</v>
       </c>
       <c r="K12" t="n">
-        <v>137.0481705151334</v>
+        <v>350.2708218801478</v>
       </c>
       <c r="L12" t="n">
-        <v>420.5849178300348</v>
+        <v>770.7511819817239</v>
       </c>
       <c r="M12" t="n">
-        <v>969.4021801896802</v>
+        <v>1319.568444341369</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.139905434521</v>
+        <v>1896.30616958621</v>
       </c>
       <c r="O12" t="n">
-        <v>1998.234017606147</v>
+        <v>2348.400281757835</v>
       </c>
       <c r="P12" t="n">
         <v>2348.400281757835</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.2225639033032</v>
+        <v>410.2225639033028</v>
       </c>
       <c r="C13" t="n">
-        <v>345.4431047219227</v>
+        <v>345.4431047219223</v>
       </c>
       <c r="D13" t="n">
-        <v>297.2077219066245</v>
+        <v>297.2077219066243</v>
       </c>
       <c r="E13" t="n">
-        <v>250.0352180248825</v>
+        <v>250.0352180248823</v>
       </c>
       <c r="F13" t="n">
-        <v>202.3910734075987</v>
+        <v>202.3910734075985</v>
       </c>
       <c r="G13" t="n">
         <v>138.5231663960931</v>
       </c>
       <c r="H13" t="n">
-        <v>85.90152222234174</v>
+        <v>85.90152222234181</v>
       </c>
       <c r="I13" t="n">
-        <v>53.0105865486651</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J13" t="n">
-        <v>111.819715140662</v>
+        <v>111.8197151406618</v>
       </c>
       <c r="K13" t="n">
-        <v>272.693894618028</v>
+        <v>272.6938946180283</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4280477250763</v>
+        <v>507.4280477250764</v>
       </c>
       <c r="M13" t="n">
-        <v>761.254264345965</v>
+        <v>761.2542643459648</v>
       </c>
       <c r="N13" t="n">
         <v>1014.72268994941</v>
@@ -5218,7 +5218,7 @@
         <v>1437.010839972937</v>
       </c>
       <c r="Q13" t="n">
-        <v>1519.662894485873</v>
+        <v>1519.662894485872</v>
       </c>
       <c r="R13" t="n">
         <v>1484.659700096164</v>
@@ -5230,19 +5230,19 @@
         <v>1252.116693451817</v>
       </c>
       <c r="U13" t="n">
-        <v>1069.774709639513</v>
+        <v>1069.774709639512</v>
       </c>
       <c r="V13" t="n">
-        <v>913.8759155548746</v>
+        <v>913.8759155548742</v>
       </c>
       <c r="W13" t="n">
-        <v>732.5560244292128</v>
+        <v>732.5560244292124</v>
       </c>
       <c r="X13" t="n">
-        <v>606.1400706815277</v>
+        <v>606.1400706815273</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.9414222307439</v>
+        <v>488.9414222307435</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.35472687203</v>
+        <v>1454.117875165605</v>
       </c>
       <c r="C14" t="n">
-        <v>1188.257478561777</v>
+        <v>1454.117875165605</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.257478561777</v>
+        <v>1186.130420749768</v>
       </c>
       <c r="E14" t="n">
-        <v>898.3082690248228</v>
+        <v>896.1812112128137</v>
       </c>
       <c r="F14" t="n">
-        <v>588.9935886919322</v>
+        <v>586.8665308799232</v>
       </c>
       <c r="G14" t="n">
-        <v>278.2061566176699</v>
+        <v>276.0790988056609</v>
       </c>
       <c r="H14" t="n">
-        <v>55.13764436067357</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="I14" t="n">
-        <v>53.0105865486651</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J14" t="n">
         <v>164.9414864248702</v>
@@ -5300,28 +5300,28 @@
         <v>2650.529327433254</v>
       </c>
       <c r="R14" t="n">
-        <v>2650.529327433255</v>
+        <v>2650.529327433254</v>
       </c>
       <c r="S14" t="n">
-        <v>2650.529327433255</v>
+        <v>2579.075867682236</v>
       </c>
       <c r="T14" t="n">
-        <v>2533.108284632913</v>
+        <v>2461.654824881894</v>
       </c>
       <c r="U14" t="n">
-        <v>2533.108284632913</v>
+        <v>2311.644402481996</v>
       </c>
       <c r="V14" t="n">
-        <v>2300.965520885793</v>
+        <v>2079.501638734876</v>
       </c>
       <c r="W14" t="n">
-        <v>2043.267101100333</v>
+        <v>1821.803218949416</v>
       </c>
       <c r="X14" t="n">
-        <v>2043.267101100333</v>
+        <v>1821.803218949416</v>
       </c>
       <c r="Y14" t="n">
-        <v>1754.56175603311</v>
+        <v>1743.324904326685</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I15" t="n">
-        <v>53.0105865486651</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J15" t="n">
-        <v>137.0481705151334</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="K15" t="n">
-        <v>407.1884058191173</v>
+        <v>323.150821852649</v>
       </c>
       <c r="L15" t="n">
-        <v>827.6687659206935</v>
+        <v>743.6311819542252</v>
       </c>
       <c r="M15" t="n">
-        <v>1376.486028280339</v>
+        <v>969.4021801896806</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.045287741381</v>
+        <v>1546.139905434521</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.139399913006</v>
+        <v>1998.234017606147</v>
       </c>
       <c r="P15" t="n">
-        <v>2538.305664064695</v>
+        <v>2348.400281757835</v>
       </c>
       <c r="Q15" t="n">
         <v>2538.305664064695</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.2225639033034</v>
+        <v>410.2225639033029</v>
       </c>
       <c r="C16" t="n">
-        <v>345.4431047219228</v>
+        <v>345.4431047219223</v>
       </c>
       <c r="D16" t="n">
-        <v>297.2077219066246</v>
+        <v>297.2077219066242</v>
       </c>
       <c r="E16" t="n">
-        <v>250.0352180248825</v>
+        <v>250.0352180248822</v>
       </c>
       <c r="F16" t="n">
-        <v>202.3910734075987</v>
+        <v>202.3910734075985</v>
       </c>
       <c r="G16" t="n">
-        <v>138.5231663960932</v>
+        <v>138.5231663960931</v>
       </c>
       <c r="H16" t="n">
-        <v>85.90152222234184</v>
+        <v>85.90152222234175</v>
       </c>
       <c r="I16" t="n">
-        <v>53.0105865486651</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J16" t="n">
         <v>111.8197151406619</v>
       </c>
       <c r="K16" t="n">
-        <v>272.6938946180279</v>
+        <v>272.693894618028</v>
       </c>
       <c r="L16" t="n">
-        <v>507.428047725076</v>
+        <v>507.4280477250762</v>
       </c>
       <c r="M16" t="n">
-        <v>761.2542643459645</v>
+        <v>761.2542643459648</v>
       </c>
       <c r="N16" t="n">
-        <v>1014.722689949409</v>
+        <v>1014.72268994941</v>
       </c>
       <c r="O16" t="n">
         <v>1245.767017294838</v>
       </c>
       <c r="P16" t="n">
-        <v>1437.010839972938</v>
+        <v>1437.010839972937</v>
       </c>
       <c r="Q16" t="n">
-        <v>1519.662894485873</v>
+        <v>1519.662894485872</v>
       </c>
       <c r="R16" t="n">
-        <v>1484.659700096165</v>
+        <v>1484.659700096164</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.539084516095</v>
+        <v>1379.539084516094</v>
       </c>
       <c r="T16" t="n">
-        <v>1252.116693451818</v>
+        <v>1252.116693451817</v>
       </c>
       <c r="U16" t="n">
-        <v>1069.774709639513</v>
+        <v>1069.774709639512</v>
       </c>
       <c r="V16" t="n">
-        <v>913.875915554875</v>
+        <v>913.8759155548742</v>
       </c>
       <c r="W16" t="n">
-        <v>732.5560244292132</v>
+        <v>732.5560244292124</v>
       </c>
       <c r="X16" t="n">
-        <v>606.140070681528</v>
+        <v>606.1400706815273</v>
       </c>
       <c r="Y16" t="n">
-        <v>488.9414222307441</v>
+        <v>488.9414222307436</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1181.075764852637</v>
       </c>
       <c r="D17" t="n">
-        <v>967.6967324993939</v>
+        <v>967.6967324993933</v>
       </c>
       <c r="E17" t="n">
-        <v>732.3559450250336</v>
+        <v>732.3559450250331</v>
       </c>
       <c r="F17" t="n">
-        <v>477.6496867547369</v>
+        <v>477.6496867547362</v>
       </c>
       <c r="G17" t="n">
         <v>221.4706767430672</v>
       </c>
       <c r="H17" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="I17" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J17" t="n">
         <v>164.9414864248702</v>
@@ -5531,7 +5531,7 @@
         <v>2209.475188794457</v>
       </c>
       <c r="P17" t="n">
-        <v>2505.289313206308</v>
+        <v>2505.289313206307</v>
       </c>
       <c r="Q17" t="n">
         <v>2650.529327433254</v>
@@ -5543,19 +5543,19 @@
         <v>2633.68428974483</v>
       </c>
       <c r="T17" t="n">
-        <v>2570.871669007082</v>
+        <v>2570.871669007081</v>
       </c>
       <c r="U17" t="n">
-        <v>2475.469668669778</v>
+        <v>2475.469668669777</v>
       </c>
       <c r="V17" t="n">
-        <v>2297.935326985252</v>
+        <v>2297.935326985251</v>
       </c>
       <c r="W17" t="n">
-        <v>2094.845329262386</v>
+        <v>2094.845329262385</v>
       </c>
       <c r="X17" t="n">
-        <v>1872.260121203413</v>
+        <v>1872.260121203411</v>
       </c>
       <c r="Y17" t="n">
         <v>1638.163198198783</v>
@@ -5589,7 +5589,7 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I18" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J18" t="n">
         <v>137.0481705151334</v>
@@ -5598,19 +5598,19 @@
         <v>407.1884058191173</v>
       </c>
       <c r="L18" t="n">
-        <v>827.6687659206935</v>
+        <v>827.6687659206934</v>
       </c>
       <c r="M18" t="n">
         <v>1376.486028280339</v>
       </c>
       <c r="N18" t="n">
-        <v>1953.22375352518</v>
+        <v>1546.139905434521</v>
       </c>
       <c r="O18" t="n">
-        <v>2405.317865696805</v>
+        <v>1998.234017606147</v>
       </c>
       <c r="P18" t="n">
-        <v>2538.305664064695</v>
+        <v>2348.400281757835</v>
       </c>
       <c r="Q18" t="n">
         <v>2538.305664064695</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.44110861636356</v>
+        <v>72.44110861636355</v>
       </c>
       <c r="C19" t="n">
         <v>62.27007149757674</v>
@@ -5662,16 +5662,16 @@
         <v>62.27007149757674</v>
       </c>
       <c r="G19" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="H19" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="I19" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="J19" t="n">
-        <v>53.01058654866509</v>
+        <v>53.01058654866508</v>
       </c>
       <c r="K19" t="n">
         <v>111.1345022251951</v>
@@ -5683,25 +5683,25 @@
         <v>394.1943443514598</v>
       </c>
       <c r="N19" t="n">
-        <v>544.9125061540688</v>
+        <v>544.9125061540686</v>
       </c>
       <c r="O19" t="n">
-        <v>673.2065696986609</v>
+        <v>673.2065696986608</v>
       </c>
       <c r="P19" t="n">
-        <v>761.7001285759239</v>
+        <v>761.7001285759238</v>
       </c>
       <c r="Q19" t="n">
-        <v>761.7001285759239</v>
+        <v>761.7001285759238</v>
       </c>
       <c r="R19" t="n">
-        <v>761.7001285759239</v>
+        <v>761.7001285759238</v>
       </c>
       <c r="S19" t="n">
-        <v>711.1879350584475</v>
+        <v>659.4986747909982</v>
       </c>
       <c r="T19" t="n">
-        <v>638.3739660567643</v>
+        <v>586.684705789315</v>
       </c>
       <c r="U19" t="n">
         <v>458.9511440396044</v>
@@ -5716,7 +5716,7 @@
         <v>159.1417712694005</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.5515448812105</v>
+        <v>96.55154488121049</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1403.564591100296</v>
+        <v>1403.564591100297</v>
       </c>
       <c r="C20" t="n">
-        <v>1181.075764852636</v>
+        <v>1181.075764852637</v>
       </c>
       <c r="D20" t="n">
-        <v>967.696732499393</v>
+        <v>967.6967324993934</v>
       </c>
       <c r="E20" t="n">
-        <v>732.3559450250327</v>
+        <v>732.3559450250332</v>
       </c>
       <c r="F20" t="n">
-        <v>477.649686754736</v>
+        <v>477.6496867547362</v>
       </c>
       <c r="G20" t="n">
         <v>221.4706767430672</v>
@@ -5753,10 +5753,10 @@
         <v>164.9414864248702</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9301081238266</v>
+        <v>464.9301081238268</v>
       </c>
       <c r="L20" t="n">
-        <v>887.0625270490174</v>
+        <v>887.0625270490173</v>
       </c>
       <c r="M20" t="n">
         <v>1362.915837673544</v>
@@ -5780,16 +5780,16 @@
         <v>2633.68428974483</v>
       </c>
       <c r="T20" t="n">
-        <v>2570.871669007081</v>
+        <v>2570.871669007082</v>
       </c>
       <c r="U20" t="n">
-        <v>2475.469668669777</v>
+        <v>2475.469668669778</v>
       </c>
       <c r="V20" t="n">
-        <v>2297.935326985251</v>
+        <v>2297.935326985252</v>
       </c>
       <c r="W20" t="n">
-        <v>2094.845329262385</v>
+        <v>2094.845329262386</v>
       </c>
       <c r="X20" t="n">
         <v>1872.260121203412</v>
@@ -5829,16 +5829,16 @@
         <v>53.01058654866508</v>
       </c>
       <c r="J21" t="n">
-        <v>53.01058654866508</v>
+        <v>137.0481705151334</v>
       </c>
       <c r="K21" t="n">
-        <v>323.150821852649</v>
+        <v>407.1884058191173</v>
       </c>
       <c r="L21" t="n">
-        <v>420.5849178300354</v>
+        <v>827.6687659206934</v>
       </c>
       <c r="M21" t="n">
-        <v>969.4021801896806</v>
+        <v>969.4021801896805</v>
       </c>
       <c r="N21" t="n">
         <v>1546.139905434521</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.1303688838129</v>
+        <v>72.44110861636355</v>
       </c>
       <c r="C22" t="n">
-        <v>113.9593317650261</v>
+        <v>62.27007149757674</v>
       </c>
       <c r="D22" t="n">
-        <v>113.9593317650261</v>
+        <v>62.27007149757674</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9593317650261</v>
+        <v>62.27007149757674</v>
       </c>
       <c r="F22" t="n">
         <v>62.27007149757674</v>
@@ -5911,13 +5911,13 @@
         <v>53.01058654866508</v>
       </c>
       <c r="K22" t="n">
-        <v>111.1345022251951</v>
+        <v>111.1345022251952</v>
       </c>
       <c r="L22" t="n">
         <v>243.1183915314073</v>
       </c>
       <c r="M22" t="n">
-        <v>394.1943443514598</v>
+        <v>394.1943443514599</v>
       </c>
       <c r="N22" t="n">
         <v>544.9125061540688</v>
@@ -5935,25 +5935,25 @@
         <v>761.7001285759239</v>
       </c>
       <c r="S22" t="n">
-        <v>711.1879350584475</v>
+        <v>659.4986747909982</v>
       </c>
       <c r="T22" t="n">
-        <v>638.3739660567643</v>
+        <v>586.684705789315</v>
       </c>
       <c r="U22" t="n">
-        <v>510.6404043070537</v>
+        <v>458.9511440396044</v>
       </c>
       <c r="V22" t="n">
-        <v>409.3500322850092</v>
+        <v>357.6607720175599</v>
       </c>
       <c r="W22" t="n">
-        <v>282.6385632219412</v>
+        <v>230.9493029544919</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8310315368498</v>
+        <v>159.1417712694005</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.2408051486598</v>
+        <v>96.55154488121049</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1181.075764852636</v>
       </c>
       <c r="D23" t="n">
-        <v>967.6967324993925</v>
+        <v>967.6967324993927</v>
       </c>
       <c r="E23" t="n">
-        <v>732.3559450250323</v>
+        <v>732.3559450250325</v>
       </c>
       <c r="F23" t="n">
         <v>477.6496867547357</v>
@@ -5990,13 +5990,13 @@
         <v>164.9414864248702</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9301081238266</v>
+        <v>464.9301081238267</v>
       </c>
       <c r="L23" t="n">
-        <v>887.0625270490174</v>
+        <v>887.0625270490176</v>
       </c>
       <c r="M23" t="n">
-        <v>1362.915837673544</v>
+        <v>1362.915837673545</v>
       </c>
       <c r="N23" t="n">
         <v>1825.198123959058</v>
@@ -6066,16 +6066,16 @@
         <v>53.01058654866508</v>
       </c>
       <c r="J24" t="n">
-        <v>53.01058654866508</v>
+        <v>137.0481705151334</v>
       </c>
       <c r="K24" t="n">
-        <v>323.150821852649</v>
+        <v>407.1884058191173</v>
       </c>
       <c r="L24" t="n">
-        <v>743.6311819542252</v>
+        <v>827.6687659206937</v>
       </c>
       <c r="M24" t="n">
-        <v>969.4021801896806</v>
+        <v>1376.486028280339</v>
       </c>
       <c r="N24" t="n">
         <v>1546.139905434521</v>
@@ -6148,13 +6148,13 @@
         <v>53.01058654866508</v>
       </c>
       <c r="K25" t="n">
-        <v>111.1345022251951</v>
+        <v>111.1345022251952</v>
       </c>
       <c r="L25" t="n">
         <v>243.1183915314073</v>
       </c>
       <c r="M25" t="n">
-        <v>394.1943443514598</v>
+        <v>394.1943443514599</v>
       </c>
       <c r="N25" t="n">
         <v>544.9125061540688</v>
@@ -6169,19 +6169,19 @@
         <v>761.7001285759239</v>
       </c>
       <c r="R25" t="n">
-        <v>710.0108683084746</v>
+        <v>761.7001285759239</v>
       </c>
       <c r="S25" t="n">
-        <v>659.4986747909982</v>
+        <v>711.1879350584475</v>
       </c>
       <c r="T25" t="n">
-        <v>586.684705789315</v>
+        <v>638.3739660567643</v>
       </c>
       <c r="U25" t="n">
-        <v>458.9511440396044</v>
+        <v>510.6404043070537</v>
       </c>
       <c r="V25" t="n">
-        <v>357.6607720175599</v>
+        <v>409.3500322850092</v>
       </c>
       <c r="W25" t="n">
         <v>230.9493029544919</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1797.300986622048</v>
+        <v>1797.300986622049</v>
       </c>
       <c r="C26" t="n">
-        <v>1520.203738311794</v>
+        <v>1520.203738311795</v>
       </c>
       <c r="D26" t="n">
-        <v>1252.216283895957</v>
+        <v>1252.216283895958</v>
       </c>
       <c r="E26" t="n">
-        <v>962.2670743590029</v>
+        <v>962.267074359004</v>
       </c>
       <c r="F26" t="n">
-        <v>652.9523940261126</v>
+        <v>652.9523940261136</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1649619518503</v>
+        <v>342.1649619518512</v>
       </c>
       <c r="H26" t="n">
         <v>119.0964496948551</v>
       </c>
       <c r="I26" t="n">
-        <v>69.62266198911513</v>
+        <v>69.62266198911514</v>
       </c>
       <c r="J26" t="n">
-        <v>284.3038256661562</v>
+        <v>232.8232374941678</v>
       </c>
       <c r="K26" t="n">
-        <v>687.0427111659485</v>
+        <v>635.5621229939602</v>
       </c>
       <c r="L26" t="n">
-        <v>1211.925393891975</v>
+        <v>1160.444805719987</v>
       </c>
       <c r="M26" t="n">
-        <v>1790.528968317338</v>
+        <v>1739.04838014535</v>
       </c>
       <c r="N26" t="n">
-        <v>2355.561518403687</v>
+        <v>2304.080930231699</v>
       </c>
       <c r="O26" t="n">
-        <v>2791.108258867934</v>
+        <v>2791.108258867935</v>
       </c>
       <c r="P26" t="n">
         <v>3189.672647080621</v>
       </c>
       <c r="Q26" t="n">
-        <v>3437.662925108403</v>
+        <v>3437.662925108404</v>
       </c>
       <c r="R26" t="n">
-        <v>3481.133099455756</v>
+        <v>3481.133099455757</v>
       </c>
       <c r="S26" t="n">
-        <v>3409.679639704738</v>
+        <v>3409.679639704739</v>
       </c>
       <c r="T26" t="n">
-        <v>3292.258596904396</v>
+        <v>3292.258596904397</v>
       </c>
       <c r="U26" t="n">
-        <v>3142.248174504498</v>
+        <v>3142.248174504499</v>
       </c>
       <c r="V26" t="n">
-        <v>2910.105410757378</v>
+        <v>2910.105410757379</v>
       </c>
       <c r="W26" t="n">
-        <v>2652.406990971918</v>
+        <v>2652.406990971919</v>
       </c>
       <c r="X26" t="n">
-        <v>2375.213360850351</v>
+        <v>2375.213360850352</v>
       </c>
       <c r="Y26" t="n">
-        <v>2086.508015783128</v>
+        <v>2086.508015783129</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>129.1617761476516</v>
       </c>
       <c r="I27" t="n">
-        <v>69.62266198911513</v>
+        <v>69.62266198911514</v>
       </c>
       <c r="J27" t="n">
         <v>153.6602459555834</v>
       </c>
       <c r="K27" t="n">
-        <v>423.8004812595673</v>
+        <v>423.8004812595674</v>
       </c>
       <c r="L27" t="n">
-        <v>437.1969932704858</v>
+        <v>844.2808413611436</v>
       </c>
       <c r="M27" t="n">
-        <v>986.0142556301309</v>
+        <v>1393.098103720789</v>
       </c>
       <c r="N27" t="n">
-        <v>1562.751980874972</v>
+        <v>1562.751980874971</v>
       </c>
       <c r="O27" t="n">
         <v>2014.846093046597</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>426.834639343753</v>
+        <v>426.8346393437529</v>
       </c>
       <c r="C28" t="n">
-        <v>362.0551801623724</v>
+        <v>362.0551801623723</v>
       </c>
       <c r="D28" t="n">
-        <v>313.8197973470743</v>
+        <v>313.8197973470741</v>
       </c>
       <c r="E28" t="n">
-        <v>266.6472934653323</v>
+        <v>266.647293465332</v>
       </c>
       <c r="F28" t="n">
-        <v>219.0031488480485</v>
+        <v>219.0031488480483</v>
       </c>
       <c r="G28" t="n">
-        <v>155.1352418365431</v>
+        <v>155.1352418365428</v>
       </c>
       <c r="H28" t="n">
-        <v>102.5135976627918</v>
+        <v>102.5135976627917</v>
       </c>
       <c r="I28" t="n">
-        <v>69.62266198911513</v>
+        <v>69.62266198911514</v>
       </c>
       <c r="J28" t="n">
         <v>128.431790581112</v>
       </c>
       <c r="K28" t="n">
-        <v>289.305970058478</v>
+        <v>289.3059700584782</v>
       </c>
       <c r="L28" t="n">
-        <v>524.0401231655261</v>
+        <v>524.0401231655263</v>
       </c>
       <c r="M28" t="n">
-        <v>777.8663397864148</v>
+        <v>777.8663397864151</v>
       </c>
       <c r="N28" t="n">
         <v>1031.33476538986</v>
@@ -6403,7 +6403,7 @@
         <v>1453.622915413387</v>
       </c>
       <c r="Q28" t="n">
-        <v>1536.274969926322</v>
+        <v>1536.274969926323</v>
       </c>
       <c r="R28" t="n">
         <v>1501.271775536614</v>
@@ -6418,16 +6418,16 @@
         <v>1086.386785079962</v>
       </c>
       <c r="V28" t="n">
-        <v>930.487990995324</v>
+        <v>930.4879909953243</v>
       </c>
       <c r="W28" t="n">
-        <v>749.1680998696626</v>
+        <v>749.1680998696625</v>
       </c>
       <c r="X28" t="n">
-        <v>622.7521461219775</v>
+        <v>622.7521461219774</v>
       </c>
       <c r="Y28" t="n">
-        <v>505.5534976711937</v>
+        <v>505.5534976711936</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1797.300986622048</v>
+        <v>1797.300986622049</v>
       </c>
       <c r="C29" t="n">
-        <v>1520.203738311795</v>
+        <v>1520.203738311796</v>
       </c>
       <c r="D29" t="n">
         <v>1252.216283895958</v>
       </c>
       <c r="E29" t="n">
-        <v>962.2670743590036</v>
+        <v>962.2670743590045</v>
       </c>
       <c r="F29" t="n">
-        <v>652.9523940261131</v>
+        <v>652.9523940261139</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1649619518508</v>
+        <v>342.1649619518516</v>
       </c>
       <c r="H29" t="n">
-        <v>119.096449694855</v>
+        <v>119.0964496948551</v>
       </c>
       <c r="I29" t="n">
-        <v>69.62266198911512</v>
+        <v>69.62266198911514</v>
       </c>
       <c r="J29" t="n">
         <v>284.3038256661563</v>
       </c>
       <c r="K29" t="n">
-        <v>687.0427111659488</v>
+        <v>687.0427111659487</v>
       </c>
       <c r="L29" t="n">
         <v>1211.925393891976</v>
       </c>
       <c r="M29" t="n">
-        <v>1790.528968317339</v>
+        <v>1739.048380145351</v>
       </c>
       <c r="N29" t="n">
-        <v>2355.561518403688</v>
+        <v>2304.0809302317</v>
       </c>
       <c r="O29" t="n">
-        <v>2842.588847039923</v>
+        <v>2791.108258867935</v>
       </c>
       <c r="P29" t="n">
-        <v>3241.15323525261</v>
+        <v>3189.672647080622</v>
       </c>
       <c r="Q29" t="n">
-        <v>3481.133099455756</v>
+        <v>3437.662925108404</v>
       </c>
       <c r="R29" t="n">
-        <v>3481.133099455756</v>
+        <v>3481.133099455757</v>
       </c>
       <c r="S29" t="n">
-        <v>3409.679639704737</v>
+        <v>3409.679639704739</v>
       </c>
       <c r="T29" t="n">
-        <v>3292.258596904396</v>
+        <v>3292.258596904397</v>
       </c>
       <c r="U29" t="n">
-        <v>3142.248174504498</v>
+        <v>3142.248174504499</v>
       </c>
       <c r="V29" t="n">
-        <v>2910.105410757379</v>
+        <v>2910.10541075738</v>
       </c>
       <c r="W29" t="n">
-        <v>2652.406990971919</v>
+        <v>2652.40699097192</v>
       </c>
       <c r="X29" t="n">
-        <v>2375.213360850351</v>
+        <v>2375.213360850352</v>
       </c>
       <c r="Y29" t="n">
-        <v>2086.508015783128</v>
+        <v>2086.508015783129</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>129.1617761476516</v>
       </c>
       <c r="I30" t="n">
-        <v>69.62266198911512</v>
+        <v>69.62266198911514</v>
       </c>
       <c r="J30" t="n">
         <v>153.6602459555834</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>426.8346393437526</v>
+        <v>426.8346393437532</v>
       </c>
       <c r="C31" t="n">
-        <v>362.0551801623721</v>
+        <v>362.0551801623726</v>
       </c>
       <c r="D31" t="n">
-        <v>313.819797347074</v>
+        <v>313.8197973470744</v>
       </c>
       <c r="E31" t="n">
-        <v>266.647293465332</v>
+        <v>266.6472934653324</v>
       </c>
       <c r="F31" t="n">
-        <v>219.0031488480484</v>
+        <v>219.0031488480486</v>
       </c>
       <c r="G31" t="n">
-        <v>155.135241836543</v>
+        <v>155.1352418365432</v>
       </c>
       <c r="H31" t="n">
-        <v>102.5135976627917</v>
+        <v>102.5135976627918</v>
       </c>
       <c r="I31" t="n">
-        <v>69.62266198911512</v>
+        <v>69.62266198911514</v>
       </c>
       <c r="J31" t="n">
         <v>128.431790581112</v>
@@ -6625,46 +6625,46 @@
         <v>289.3059700584781</v>
       </c>
       <c r="L31" t="n">
-        <v>524.0401231655263</v>
+        <v>524.0401231655262</v>
       </c>
       <c r="M31" t="n">
-        <v>777.866339786415</v>
+        <v>777.8663397864148</v>
       </c>
       <c r="N31" t="n">
-        <v>1031.33476538986</v>
+        <v>1031.334765389861</v>
       </c>
       <c r="O31" t="n">
-        <v>1262.379092735288</v>
+        <v>1262.379092735289</v>
       </c>
       <c r="P31" t="n">
-        <v>1453.622915413386</v>
+        <v>1453.622915413388</v>
       </c>
       <c r="Q31" t="n">
-        <v>1536.274969926322</v>
+        <v>1536.274969926323</v>
       </c>
       <c r="R31" t="n">
-        <v>1501.271775536613</v>
+        <v>1501.271775536615</v>
       </c>
       <c r="S31" t="n">
-        <v>1396.151159956543</v>
+        <v>1396.151159956544</v>
       </c>
       <c r="T31" t="n">
-        <v>1268.728768892266</v>
+        <v>1268.728768892267</v>
       </c>
       <c r="U31" t="n">
-        <v>1086.386785079962</v>
+        <v>1086.386785079963</v>
       </c>
       <c r="V31" t="n">
-        <v>930.4879909953237</v>
+        <v>930.4879909953246</v>
       </c>
       <c r="W31" t="n">
-        <v>749.168099869662</v>
+        <v>749.1680998696628</v>
       </c>
       <c r="X31" t="n">
-        <v>622.7521461219769</v>
+        <v>622.7521461219777</v>
       </c>
       <c r="Y31" t="n">
-        <v>505.5534976711932</v>
+        <v>505.553497671194</v>
       </c>
     </row>
     <row r="32">
@@ -6683,64 +6683,64 @@
         <v>1080.565736266944</v>
       </c>
       <c r="E32" t="n">
-        <v>822.9660530139195</v>
+        <v>822.9660530139192</v>
       </c>
       <c r="F32" t="n">
-        <v>546.0008989649587</v>
+        <v>546.0008989649588</v>
       </c>
       <c r="G32" t="n">
         <v>267.5629931746262</v>
       </c>
       <c r="H32" t="n">
-        <v>76.84400720155907</v>
+        <v>76.84400720155919</v>
       </c>
       <c r="I32" t="n">
-        <v>59.71974577974888</v>
+        <v>59.71974577974891</v>
       </c>
       <c r="J32" t="n">
-        <v>290.7674684091124</v>
+        <v>171.650645655954</v>
       </c>
       <c r="K32" t="n">
-        <v>725.2121246197845</v>
+        <v>531.4760006545872</v>
       </c>
       <c r="L32" t="n">
-        <v>1147.344543544975</v>
+        <v>953.608419579778</v>
       </c>
       <c r="M32" t="n">
-        <v>1623.197854169502</v>
+        <v>1429.461730204305</v>
       </c>
       <c r="N32" t="n">
-        <v>2085.480140455015</v>
+        <v>2026.200051001533</v>
       </c>
       <c r="O32" t="n">
-        <v>2469.757205290414</v>
+        <v>2410.477115836933</v>
       </c>
       <c r="P32" t="n">
-        <v>2765.571329702265</v>
+        <v>2706.291240248783</v>
       </c>
       <c r="Q32" t="n">
-        <v>2910.811343929211</v>
+        <v>2985.987288987445</v>
       </c>
       <c r="R32" t="n">
-        <v>2985.987288987444</v>
+        <v>2985.987288987445</v>
       </c>
       <c r="S32" t="n">
-        <v>2946.883355520356</v>
+        <v>2946.883355520357</v>
       </c>
       <c r="T32" t="n">
-        <v>2861.811839003944</v>
+        <v>2861.811839003945</v>
       </c>
       <c r="U32" t="n">
-        <v>2744.150942887976</v>
+        <v>2744.150942887977</v>
       </c>
       <c r="V32" t="n">
-        <v>2544.357705424786</v>
+        <v>2544.357705424787</v>
       </c>
       <c r="W32" t="n">
         <v>2319.008811923256</v>
       </c>
       <c r="X32" t="n">
-        <v>2074.164708085618</v>
+        <v>2074.164708085619</v>
       </c>
       <c r="Y32" t="n">
         <v>1817.808889302325</v>
@@ -6765,7 +6765,7 @@
         <v>479.8815751766566</v>
       </c>
       <c r="F33" t="n">
-        <v>345.1877771265309</v>
+        <v>345.187777126531</v>
       </c>
       <c r="G33" t="n">
         <v>216.7161233947225</v>
@@ -6774,19 +6774,19 @@
         <v>119.2588599382853</v>
       </c>
       <c r="I33" t="n">
-        <v>59.71974577974888</v>
+        <v>59.71974577974891</v>
       </c>
       <c r="J33" t="n">
-        <v>143.7573297462172</v>
+        <v>59.71974577974891</v>
       </c>
       <c r="K33" t="n">
-        <v>413.8975650502011</v>
+        <v>329.8599810837329</v>
       </c>
       <c r="L33" t="n">
-        <v>834.3779251517774</v>
+        <v>750.3403411853091</v>
       </c>
       <c r="M33" t="n">
-        <v>976.1113394207646</v>
+        <v>1299.157603544954</v>
       </c>
       <c r="N33" t="n">
         <v>1552.849064665605</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.4850391468784</v>
+        <v>190.485039146879</v>
       </c>
       <c r="C34" t="n">
-        <v>158.0551062494276</v>
+        <v>158.0551062494281</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1692497180592</v>
+        <v>142.1692497180597</v>
       </c>
       <c r="E34" t="n">
-        <v>127.346272120247</v>
+        <v>127.3462721202473</v>
       </c>
       <c r="F34" t="n">
-        <v>112.051653786893</v>
+        <v>112.0516537868933</v>
       </c>
       <c r="G34" t="n">
-        <v>80.53327305931734</v>
+        <v>80.53327305931754</v>
       </c>
       <c r="H34" t="n">
-        <v>60.26115516949579</v>
+        <v>60.2611551694959</v>
       </c>
       <c r="I34" t="n">
-        <v>59.71974577974888</v>
+        <v>59.71974577974891</v>
       </c>
       <c r="J34" t="n">
-        <v>59.71974577974888</v>
+        <v>59.71974577974891</v>
       </c>
       <c r="K34" t="n">
         <v>117.843661456279</v>
       </c>
       <c r="L34" t="n">
-        <v>249.8275507624911</v>
+        <v>384.2835852742066</v>
       </c>
       <c r="M34" t="n">
-        <v>400.9035035825436</v>
+        <v>535.3595380942592</v>
       </c>
       <c r="N34" t="n">
-        <v>551.6216653851525</v>
+        <v>686.077699896868</v>
       </c>
       <c r="O34" t="n">
-        <v>805.9282490730021</v>
+        <v>814.3717634414602</v>
       </c>
       <c r="P34" t="n">
-        <v>894.4218079502651</v>
+        <v>902.8653223187232</v>
       </c>
       <c r="Q34" t="n">
-        <v>1008.77963317408</v>
+        <v>1008.779633174081</v>
       </c>
       <c r="R34" t="n">
-        <v>1006.125965068301</v>
+        <v>1006.125965068303</v>
       </c>
       <c r="S34" t="n">
-        <v>933.3548757721609</v>
+        <v>933.354875772162</v>
       </c>
       <c r="T34" t="n">
-        <v>838.2820109918138</v>
+        <v>838.2820109918148</v>
       </c>
       <c r="U34" t="n">
-        <v>688.2895534634392</v>
+        <v>688.2895534634401</v>
       </c>
       <c r="V34" t="n">
-        <v>564.7402856627307</v>
+        <v>564.7402856627316</v>
       </c>
       <c r="W34" t="n">
-        <v>415.7699208209987</v>
+        <v>415.7699208209996</v>
       </c>
       <c r="X34" t="n">
-        <v>321.7034933572434</v>
+        <v>321.7034933572442</v>
       </c>
       <c r="Y34" t="n">
-        <v>236.8543711903893</v>
+        <v>236.8543711903901</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1403.564591100296</v>
+        <v>1403.564591100297</v>
       </c>
       <c r="C35" t="n">
         <v>1181.075764852637</v>
       </c>
       <c r="D35" t="n">
-        <v>967.6967324993931</v>
+        <v>967.6967324993939</v>
       </c>
       <c r="E35" t="n">
-        <v>732.3559450250327</v>
+        <v>732.3559450250336</v>
       </c>
       <c r="F35" t="n">
-        <v>477.6496867547357</v>
+        <v>477.6496867547369</v>
       </c>
       <c r="G35" t="n">
         <v>221.4706767430672</v>
       </c>
       <c r="H35" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="I35" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="J35" t="n">
-        <v>164.9414864248702</v>
+        <v>164.9414864248704</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9301081238266</v>
+        <v>464.9301081238268</v>
       </c>
       <c r="L35" t="n">
-        <v>887.0625270490174</v>
+        <v>887.0625270490177</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.915837673544</v>
+        <v>1362.915837673545</v>
       </c>
       <c r="N35" t="n">
         <v>1825.198123959058</v>
@@ -6953,13 +6953,13 @@
         <v>2209.475188794457</v>
       </c>
       <c r="P35" t="n">
-        <v>2505.289313206307</v>
+        <v>2505.289313206308</v>
       </c>
       <c r="Q35" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433255</v>
       </c>
       <c r="R35" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433255</v>
       </c>
       <c r="S35" t="n">
         <v>2633.68428974483</v>
@@ -6968,16 +6968,16 @@
         <v>2570.871669007081</v>
       </c>
       <c r="U35" t="n">
-        <v>2475.469668669777</v>
+        <v>2475.469668669778</v>
       </c>
       <c r="V35" t="n">
-        <v>2297.935326985251</v>
+        <v>2297.935326985252</v>
       </c>
       <c r="W35" t="n">
-        <v>2094.845329262385</v>
+        <v>2094.845329262386</v>
       </c>
       <c r="X35" t="n">
-        <v>1872.260121203411</v>
+        <v>1872.260121203413</v>
       </c>
       <c r="Y35" t="n">
         <v>1638.163198198783</v>
@@ -7011,7 +7011,7 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I36" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="J36" t="n">
         <v>137.0481705151334</v>
@@ -7020,19 +7020,19 @@
         <v>407.1884058191173</v>
       </c>
       <c r="L36" t="n">
-        <v>827.6687659206934</v>
+        <v>827.6687659206935</v>
       </c>
       <c r="M36" t="n">
         <v>1376.486028280339</v>
       </c>
       <c r="N36" t="n">
-        <v>1546.139905434521</v>
+        <v>1953.22375352518</v>
       </c>
       <c r="O36" t="n">
-        <v>1998.234017606147</v>
+        <v>2405.317865696805</v>
       </c>
       <c r="P36" t="n">
-        <v>2348.400281757835</v>
+        <v>2538.305664064695</v>
       </c>
       <c r="Q36" t="n">
         <v>2538.305664064695</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.1303688838129</v>
+        <v>72.44110861636356</v>
       </c>
       <c r="C37" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757675</v>
       </c>
       <c r="D37" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757675</v>
       </c>
       <c r="E37" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757675</v>
       </c>
       <c r="F37" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757675</v>
       </c>
       <c r="G37" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="H37" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="I37" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="J37" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="K37" t="n">
-        <v>111.1345022251951</v>
+        <v>111.1345022251952</v>
       </c>
       <c r="L37" t="n">
         <v>243.1183915314073</v>
       </c>
       <c r="M37" t="n">
-        <v>394.1943443514598</v>
+        <v>394.1943443514599</v>
       </c>
       <c r="N37" t="n">
         <v>544.9125061540688</v>
@@ -7138,7 +7138,7 @@
         <v>210.8310315368498</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.2408051486598</v>
+        <v>96.5515448812105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1403.564591100296</v>
+        <v>1403.564591100297</v>
       </c>
       <c r="C38" t="n">
-        <v>1181.075764852636</v>
+        <v>1181.075764852637</v>
       </c>
       <c r="D38" t="n">
-        <v>967.6967324993925</v>
+        <v>967.6967324993934</v>
       </c>
       <c r="E38" t="n">
-        <v>732.3559450250323</v>
+        <v>732.3559450250332</v>
       </c>
       <c r="F38" t="n">
-        <v>477.649686754736</v>
+        <v>477.6496867547362</v>
       </c>
       <c r="G38" t="n">
-        <v>221.4706767430672</v>
+        <v>221.4706767430673</v>
       </c>
       <c r="H38" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="I38" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="J38" t="n">
-        <v>164.9414864248704</v>
+        <v>164.9414864248702</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9301081238268</v>
+        <v>464.9301081238266</v>
       </c>
       <c r="L38" t="n">
-        <v>887.0625270490177</v>
+        <v>887.0625270490174</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.915837673545</v>
+        <v>1362.915837673544</v>
       </c>
       <c r="N38" t="n">
         <v>1825.198123959058</v>
@@ -7196,28 +7196,28 @@
         <v>2650.529327433254</v>
       </c>
       <c r="R38" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433255</v>
       </c>
       <c r="S38" t="n">
         <v>2633.68428974483</v>
       </c>
       <c r="T38" t="n">
-        <v>2570.871669007081</v>
+        <v>2570.871669007083</v>
       </c>
       <c r="U38" t="n">
-        <v>2475.469668669777</v>
+        <v>2475.469668669778</v>
       </c>
       <c r="V38" t="n">
-        <v>2297.935326985251</v>
+        <v>2297.935326985252</v>
       </c>
       <c r="W38" t="n">
-        <v>2094.845329262385</v>
+        <v>2094.845329262386</v>
       </c>
       <c r="X38" t="n">
-        <v>1872.260121203411</v>
+        <v>1872.260121203412</v>
       </c>
       <c r="Y38" t="n">
-        <v>1638.163198198782</v>
+        <v>1638.163198198783</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I39" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="J39" t="n">
         <v>137.0481705151334</v>
       </c>
       <c r="K39" t="n">
-        <v>190.0099400353185</v>
+        <v>407.1884058191173</v>
       </c>
       <c r="L39" t="n">
-        <v>610.4903001368947</v>
+        <v>827.6687659206935</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.30756249654</v>
+        <v>1376.486028280339</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.045287741381</v>
+        <v>1953.22375352518</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.139399913006</v>
+        <v>1998.234017606147</v>
       </c>
       <c r="P39" t="n">
-        <v>2538.305664064695</v>
+        <v>2348.400281757835</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.305664064695</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.1303688838129</v>
+        <v>72.44110861636368</v>
       </c>
       <c r="C40" t="n">
-        <v>113.9593317650261</v>
+        <v>62.27007149757681</v>
       </c>
       <c r="D40" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757681</v>
       </c>
       <c r="E40" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757681</v>
       </c>
       <c r="F40" t="n">
-        <v>62.27007149757674</v>
+        <v>62.27007149757681</v>
       </c>
       <c r="G40" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="H40" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="I40" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="J40" t="n">
-        <v>53.01058654866508</v>
+        <v>53.0105865486651</v>
       </c>
       <c r="K40" t="n">
-        <v>111.1345022251951</v>
+        <v>111.1345022251952</v>
       </c>
       <c r="L40" t="n">
         <v>243.1183915314073</v>
       </c>
       <c r="M40" t="n">
-        <v>394.1943443514598</v>
+        <v>394.1943443514599</v>
       </c>
       <c r="N40" t="n">
         <v>544.9125061540688</v>
@@ -7351,31 +7351,31 @@
         <v>761.7001285759239</v>
       </c>
       <c r="Q40" t="n">
-        <v>761.7001285759239</v>
+        <v>741.1938442295301</v>
       </c>
       <c r="R40" t="n">
-        <v>761.7001285759239</v>
+        <v>741.1938442295301</v>
       </c>
       <c r="S40" t="n">
-        <v>711.1879350584475</v>
+        <v>690.6816507120536</v>
       </c>
       <c r="T40" t="n">
-        <v>638.3739660567643</v>
+        <v>586.6847057893154</v>
       </c>
       <c r="U40" t="n">
-        <v>510.6404043070537</v>
+        <v>458.9511440396048</v>
       </c>
       <c r="V40" t="n">
-        <v>409.3500322850092</v>
+        <v>357.6607720175602</v>
       </c>
       <c r="W40" t="n">
-        <v>282.6385632219412</v>
+        <v>230.9493029544922</v>
       </c>
       <c r="X40" t="n">
-        <v>210.8310315368498</v>
+        <v>159.1417712694007</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.2408051486598</v>
+        <v>96.55154488121067</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1618.825399835972</v>
+        <v>1151.684084708837</v>
       </c>
       <c r="C41" t="n">
-        <v>1364.851510289379</v>
+        <v>897.7101951622449</v>
       </c>
       <c r="D41" t="n">
-        <v>1119.987414637203</v>
+        <v>652.8460995100691</v>
       </c>
       <c r="E41" t="n">
-        <v>853.1615638639098</v>
+        <v>386.0202487367765</v>
       </c>
       <c r="F41" t="n">
-        <v>566.9702422946802</v>
+        <v>252.9557400419995</v>
       </c>
       <c r="G41" t="n">
-        <v>279.3061689840789</v>
+        <v>252.9557400419995</v>
       </c>
       <c r="H41" t="n">
-        <v>79.36101549074409</v>
+        <v>53.01058654866507</v>
       </c>
       <c r="I41" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866507</v>
       </c>
       <c r="J41" t="n">
-        <v>164.9414864248703</v>
+        <v>164.9414864248702</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9301081238267</v>
+        <v>464.9301081238266</v>
       </c>
       <c r="L41" t="n">
-        <v>887.0625270490175</v>
+        <v>887.0625270490174</v>
       </c>
       <c r="M41" t="n">
         <v>1362.915837673544</v>
@@ -7430,31 +7430,31 @@
         <v>2505.289313206307</v>
       </c>
       <c r="Q41" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433253</v>
       </c>
       <c r="R41" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433253</v>
       </c>
       <c r="S41" t="n">
-        <v>2650.529327433254</v>
+        <v>2602.199226445897</v>
       </c>
       <c r="T41" t="n">
-        <v>2556.231643396573</v>
+        <v>2507.901542409217</v>
       </c>
       <c r="U41" t="n">
-        <v>2429.344579760336</v>
+        <v>2381.01447877298</v>
       </c>
       <c r="V41" t="n">
-        <v>2429.344579760336</v>
+        <v>2171.995073789522</v>
       </c>
       <c r="W41" t="n">
-        <v>2194.769518738537</v>
+        <v>1937.420012767723</v>
       </c>
       <c r="X41" t="n">
-        <v>2150.491056536953</v>
+        <v>1683.349741409817</v>
       </c>
       <c r="Y41" t="n">
-        <v>1884.909070233391</v>
+        <v>1417.767755106256</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7473,10 @@
         <v>620.2004258887016</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1724159455729</v>
+        <v>473.1724159455728</v>
       </c>
       <c r="F42" t="n">
-        <v>338.4786178954472</v>
+        <v>338.4786178954471</v>
       </c>
       <c r="G42" t="n">
         <v>210.0069641636387</v>
@@ -7485,25 +7485,25 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I42" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866507</v>
       </c>
       <c r="J42" t="n">
-        <v>53.01058654866508</v>
+        <v>137.0481705151334</v>
       </c>
       <c r="K42" t="n">
-        <v>53.01058654866508</v>
+        <v>407.1884058191173</v>
       </c>
       <c r="L42" t="n">
-        <v>473.4909466502413</v>
+        <v>827.6687659206934</v>
       </c>
       <c r="M42" t="n">
-        <v>1022.308209009886</v>
+        <v>1376.486028280339</v>
       </c>
       <c r="N42" t="n">
-        <v>1599.045934254727</v>
+        <v>1953.22375352518</v>
       </c>
       <c r="O42" t="n">
-        <v>2051.140046426353</v>
+        <v>1998.234017606147</v>
       </c>
       <c r="P42" t="n">
         <v>2348.400281757835</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>248.3590525576764</v>
+        <v>248.3590525576731</v>
       </c>
       <c r="C43" t="n">
-        <v>206.7029521399567</v>
+        <v>206.7029521399539</v>
       </c>
       <c r="D43" t="n">
-        <v>181.5909280883195</v>
+        <v>181.5909280883172</v>
       </c>
       <c r="E43" t="n">
-        <v>157.5417829702385</v>
+        <v>157.5417829702366</v>
       </c>
       <c r="F43" t="n">
-        <v>133.0209971166157</v>
+        <v>133.0209971166142</v>
       </c>
       <c r="G43" t="n">
-        <v>92.2764488687712</v>
+        <v>92.27644886877023</v>
       </c>
       <c r="H43" t="n">
-        <v>62.77816345868082</v>
+        <v>62.77816345868032</v>
       </c>
       <c r="I43" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866507</v>
       </c>
       <c r="J43" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866507</v>
       </c>
       <c r="K43" t="n">
         <v>111.1345022251951</v>
@@ -7576,43 +7576,43 @@
         <v>243.1183915314073</v>
       </c>
       <c r="M43" t="n">
-        <v>519.60781207656</v>
+        <v>519.6078120765603</v>
       </c>
       <c r="N43" t="n">
-        <v>795.7394416042689</v>
+        <v>702.172805683134</v>
       </c>
       <c r="O43" t="n">
-        <v>924.0335051488611</v>
+        <v>830.4668692277262</v>
       </c>
       <c r="P43" t="n">
-        <v>1044.373895830098</v>
+        <v>1044.37389583009</v>
       </c>
       <c r="Q43" t="n">
-        <v>1149.689154267297</v>
+        <v>1149.68915426729</v>
       </c>
       <c r="R43" t="n">
-        <v>1137.80931864125</v>
+        <v>1137.809318641243</v>
       </c>
       <c r="S43" t="n">
-        <v>1055.812061824841</v>
+        <v>1055.812061824834</v>
       </c>
       <c r="T43" t="n">
-        <v>951.5130295242246</v>
+        <v>951.5130295242185</v>
       </c>
       <c r="U43" t="n">
-        <v>792.2944044755812</v>
+        <v>792.2944044755756</v>
       </c>
       <c r="V43" t="n">
-        <v>659.518969154604</v>
+        <v>659.5189691545987</v>
       </c>
       <c r="W43" t="n">
-        <v>501.3224367926031</v>
+        <v>501.3224367925984</v>
       </c>
       <c r="X43" t="n">
-        <v>398.029841808579</v>
+        <v>398.0298418085747</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.9545521214561</v>
+        <v>303.9545521214524</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1455.001173728974</v>
+        <v>1151.684084708837</v>
       </c>
       <c r="C44" t="n">
-        <v>1201.027284182382</v>
+        <v>897.7101951622445</v>
       </c>
       <c r="D44" t="n">
-        <v>956.1631885302052</v>
+        <v>652.8460995100686</v>
       </c>
       <c r="E44" t="n">
-        <v>689.3373377569121</v>
+        <v>539.1470616112287</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1460161876825</v>
+        <v>252.9557400419995</v>
       </c>
       <c r="G44" t="n">
-        <v>115.4819428770811</v>
+        <v>252.9557400419995</v>
       </c>
       <c r="H44" t="n">
-        <v>79.36101549074409</v>
+        <v>53.01058654866506</v>
       </c>
       <c r="I44" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866506</v>
       </c>
       <c r="J44" t="n">
-        <v>164.9414864248702</v>
+        <v>164.9414864248695</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9301081238266</v>
+        <v>464.9301081238259</v>
       </c>
       <c r="L44" t="n">
-        <v>887.0625270490174</v>
+        <v>887.0625270490166</v>
       </c>
       <c r="M44" t="n">
         <v>1362.915837673544</v>
       </c>
       <c r="N44" t="n">
-        <v>1825.198123959058</v>
+        <v>1825.198123959057</v>
       </c>
       <c r="O44" t="n">
-        <v>2209.475188794457</v>
+        <v>2209.475188794456</v>
       </c>
       <c r="P44" t="n">
-        <v>2505.289313206307</v>
+        <v>2505.289313206306</v>
       </c>
       <c r="Q44" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433253</v>
       </c>
       <c r="R44" t="n">
-        <v>2650.529327433254</v>
+        <v>2650.529327433253</v>
       </c>
       <c r="S44" t="n">
-        <v>2602.199226445897</v>
+        <v>2602.199226445896</v>
       </c>
       <c r="T44" t="n">
-        <v>2602.199226445897</v>
+        <v>2507.901542409216</v>
       </c>
       <c r="U44" t="n">
-        <v>2475.312162809661</v>
+        <v>2381.014478772979</v>
       </c>
       <c r="V44" t="n">
-        <v>2475.312162809661</v>
+        <v>2171.995073789521</v>
       </c>
       <c r="W44" t="n">
-        <v>2240.737101787862</v>
+        <v>1937.420012767723</v>
       </c>
       <c r="X44" t="n">
-        <v>1986.666830429955</v>
+        <v>1683.349741409817</v>
       </c>
       <c r="Y44" t="n">
-        <v>1721.084844126393</v>
+        <v>1417.767755106255</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>620.2004258887016</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1724159455729</v>
+        <v>473.1724159455728</v>
       </c>
       <c r="F45" t="n">
-        <v>338.4786178954472</v>
+        <v>338.4786178954471</v>
       </c>
       <c r="G45" t="n">
         <v>210.0069641636387</v>
@@ -7722,28 +7722,28 @@
         <v>112.5497007072015</v>
       </c>
       <c r="I45" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866506</v>
       </c>
       <c r="J45" t="n">
-        <v>53.01058654866508</v>
+        <v>137.0481705151333</v>
       </c>
       <c r="K45" t="n">
-        <v>53.01058654866508</v>
+        <v>407.1884058191173</v>
       </c>
       <c r="L45" t="n">
-        <v>473.4909466502413</v>
+        <v>420.5849178300354</v>
       </c>
       <c r="M45" t="n">
-        <v>1022.308209009886</v>
+        <v>969.4021801896806</v>
       </c>
       <c r="N45" t="n">
-        <v>1599.045934254727</v>
+        <v>1546.139905434521</v>
       </c>
       <c r="O45" t="n">
-        <v>2051.140046426353</v>
+        <v>1998.234017606147</v>
       </c>
       <c r="P45" t="n">
-        <v>2401.306310578041</v>
+        <v>2348.400281757835</v>
       </c>
       <c r="Q45" t="n">
         <v>2538.305664064695</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>248.3590525576764</v>
+        <v>248.3590525576731</v>
       </c>
       <c r="C46" t="n">
-        <v>206.7029521399567</v>
+        <v>206.7029521399539</v>
       </c>
       <c r="D46" t="n">
-        <v>181.5909280883195</v>
+        <v>181.5909280883172</v>
       </c>
       <c r="E46" t="n">
-        <v>157.5417829702385</v>
+        <v>157.5417829702366</v>
       </c>
       <c r="F46" t="n">
-        <v>133.0209971166157</v>
+        <v>133.0209971166142</v>
       </c>
       <c r="G46" t="n">
-        <v>92.2764488687712</v>
+        <v>92.27644886877023</v>
       </c>
       <c r="H46" t="n">
-        <v>62.77816345868082</v>
+        <v>62.77816345868032</v>
       </c>
       <c r="I46" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866506</v>
       </c>
       <c r="J46" t="n">
-        <v>53.01058654866508</v>
+        <v>53.01058654866506</v>
       </c>
       <c r="K46" t="n">
-        <v>236.5479699502953</v>
+        <v>236.5479699502957</v>
       </c>
       <c r="L46" t="n">
-        <v>368.5318592565075</v>
+        <v>400.3786910604727</v>
       </c>
       <c r="M46" t="n">
-        <v>531.3564345926331</v>
+        <v>676.8681116056258</v>
       </c>
       <c r="N46" t="n">
-        <v>807.4880641203422</v>
+        <v>827.5862734082347</v>
       </c>
       <c r="O46" t="n">
-        <v>1061.195595390034</v>
+        <v>955.8803369528268</v>
       </c>
       <c r="P46" t="n">
-        <v>1149.689154267297</v>
+        <v>1044.37389583009</v>
       </c>
       <c r="Q46" t="n">
-        <v>1149.689154267297</v>
+        <v>1149.68915426729</v>
       </c>
       <c r="R46" t="n">
-        <v>1137.80931864125</v>
+        <v>1137.809318641243</v>
       </c>
       <c r="S46" t="n">
-        <v>1055.812061824841</v>
+        <v>1055.812061824834</v>
       </c>
       <c r="T46" t="n">
-        <v>951.5130295242246</v>
+        <v>951.5130295242185</v>
       </c>
       <c r="U46" t="n">
-        <v>792.2944044755812</v>
+        <v>792.2944044755756</v>
       </c>
       <c r="V46" t="n">
-        <v>659.518969154604</v>
+        <v>659.5189691545987</v>
       </c>
       <c r="W46" t="n">
-        <v>501.3224367926031</v>
+        <v>501.3224367925984</v>
       </c>
       <c r="X46" t="n">
-        <v>398.029841808579</v>
+        <v>398.0298418085747</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.9545521214561</v>
+        <v>303.9545521214524</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>190.7659506544006</v>
       </c>
       <c r="L2" t="n">
         <v>191.5602121631146</v>
@@ -7988,16 +7988,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>198.415200160258</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P2" t="n">
-        <v>199.8197557315104</v>
+        <v>199.3372124312941</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,7 +8058,7 @@
         <v>114.9985183470206</v>
       </c>
       <c r="K3" t="n">
-        <v>123.4565725468042</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
@@ -8067,10 +8067,10 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O3" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>120.7971527044972</v>
@@ -8140,19 +8140,19 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L4" t="n">
-        <v>121.53674615886</v>
+        <v>121.0542028586437</v>
       </c>
       <c r="M4" t="n">
-        <v>124.3376028375667</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P4" t="n">
-        <v>123.8469499702863</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8219,19 +8219,19 @@
         <v>190.7659506544006</v>
       </c>
       <c r="L5" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>199.099261177513</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
         <v>197.8585175523677</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>123.9391158470206</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>126.9443059417775</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>120.3146094042809</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8377,19 +8377,19 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L7" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>124.820146137783</v>
       </c>
       <c r="N7" t="n">
-        <v>103.744504878002</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O7" t="n">
         <v>123.9563408722598</v>
       </c>
       <c r="P7" t="n">
-        <v>123.8469499702863</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>244.6758953655979</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>317.2001799443227</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8529,25 +8529,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
-        <v>181.9580424594851</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O9" t="n">
         <v>251.5888479085429</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>239.0995891883455</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8769,10 +8769,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>70.93588356687337</v>
+        <v>286.3122990870901</v>
       </c>
       <c r="L12" t="n">
-        <v>343.7655672917949</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>60.29830210900104</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>79.03189749155344</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>279.1072251737982</v>
       </c>
       <c r="N15" t="n">
-        <v>403.7728989862167</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.27685556482675</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229281</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,16 +9252,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>211.9492804944396</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>194.6294115715155</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.27685556482675</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>79.03189749155342</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>155.783091193295</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>194.2207767228199</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>79.03189749155342</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>279.1072251737981</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>211.9492804944395</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9957,13 +9957,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>70.89664274231748</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>211.9492804944395</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>79.03189749155342</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>194.2207767228201</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>296.8357289454177</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>211.9492804944395</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>194.6294115715155</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>81.27685556482675</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>124.4326204559494</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10914,13 +10914,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>100.8252089075684</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.27685556482675</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.825599723696</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578756</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>79.03189749155342</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>70.93588356687349</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>100.8252089075684</v>
       </c>
       <c r="P42" t="n">
-        <v>360.5611660801953</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>79.03189749155342</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>70.93588356687349</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>70.89664274231697</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.6600409048808</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.3343947282861</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>307.6795577535196</v>
       </c>
       <c r="H11" t="n">
-        <v>191.5553179761547</v>
+        <v>220.8378271344259</v>
       </c>
       <c r="I11" t="n">
-        <v>48.97904982868252</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.73892515350781</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.2468323723384</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>148.510318175899</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>229.8213361096483</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>274.3262758271509</v>
       </c>
       <c r="D14" t="n">
-        <v>265.307579871679</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.87326259479425</v>
+        <v>48.97904982868255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.73892515350789</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>148.5103181758991</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>274.4216938203519</v>
+        <v>274.4216938203518</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>208.1247601400469</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
     </row>
     <row r="18">
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>151.5955447457087</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>284.7874325774949</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>26.08692465265776</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.8467999774835</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,13 +25685,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>206.929210933624</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>207.6938910647591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>151.5955447457087</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>284.7874325774949</v>
       </c>
       <c r="H44" t="n">
-        <v>162.1859838459281</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>26.08692465265776</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>93.35470719631407</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>206.929210933624</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>628804.6707407465</v>
+        <v>628804.6707407463</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649304.5688358762</v>
+        <v>649304.5688358764</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649304.5688358762</v>
+        <v>649304.5688358764</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767624.0604941822</v>
+        <v>767624.0604941823</v>
       </c>
       <c r="C2" t="n">
-        <v>767624.0604941822</v>
+        <v>767624.0604941823</v>
       </c>
       <c r="D2" t="n">
+        <v>767624.0604941814</v>
+      </c>
+      <c r="E2" t="n">
+        <v>703478.2588367313</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703478.2588367311</v>
+      </c>
+      <c r="G2" t="n">
         <v>767624.0604941815</v>
       </c>
-      <c r="E2" t="n">
-        <v>703478.2588367312</v>
-      </c>
-      <c r="F2" t="n">
-        <v>703478.2588367308</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>767624.0604941814</v>
       </c>
-      <c r="H2" t="n">
-        <v>767624.0604941817</v>
-      </c>
       <c r="I2" t="n">
-        <v>767624.0604941816</v>
+        <v>767624.0604941815</v>
       </c>
       <c r="J2" t="n">
-        <v>767624.0604941831</v>
+        <v>767624.0604941834</v>
       </c>
       <c r="K2" t="n">
-        <v>767624.0604941832</v>
+        <v>767624.0604941834</v>
       </c>
       <c r="L2" t="n">
         <v>767624.0604941811</v>
       </c>
       <c r="M2" t="n">
-        <v>767624.0604941812</v>
+        <v>767624.0604941816</v>
       </c>
       <c r="N2" t="n">
-        <v>767624.0604941811</v>
+        <v>767624.0604941814</v>
       </c>
       <c r="O2" t="n">
-        <v>730811.4562969031</v>
+        <v>730811.4562969044</v>
       </c>
       <c r="P2" t="n">
-        <v>730811.4562969027</v>
+        <v>730811.4562969042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>38451.7857764429</v>
       </c>
       <c r="E3" t="n">
-        <v>335327.9230077159</v>
+        <v>335327.9230077155</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43249.8702735743</v>
+        <v>43249.87027357424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97236.06960211994</v>
+        <v>97236.06960212</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68870.69509044664</v>
+        <v>68870.69509044656</v>
       </c>
       <c r="M3" t="n">
         <v>128035.9973998163</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14844.47579636675</v>
+        <v>14844.47579636717</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373082.8084381231</v>
+        <v>373082.8084381232</v>
       </c>
       <c r="C4" t="n">
         <v>373082.8084381231</v>
@@ -26436,7 +26436,7 @@
         <v>245671.5461765108</v>
       </c>
       <c r="I4" t="n">
-        <v>245671.5461765108</v>
+        <v>245671.5461765107</v>
       </c>
       <c r="J4" t="n">
         <v>246749.3654868532</v>
@@ -26448,16 +26448,16 @@
         <v>246086.352408749</v>
       </c>
       <c r="M4" t="n">
-        <v>245671.5461765108</v>
+        <v>245671.5461765107</v>
       </c>
       <c r="N4" t="n">
         <v>245671.5461765108</v>
       </c>
       <c r="O4" t="n">
-        <v>224781.065931952</v>
+        <v>224781.0659319523</v>
       </c>
       <c r="P4" t="n">
-        <v>224781.065931952</v>
+        <v>224781.0659319523</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>51590.53899057057</v>
+        <v>51590.53899057054</v>
       </c>
       <c r="F5" t="n">
-        <v>51590.53899057055</v>
+        <v>51590.53899057054</v>
       </c>
       <c r="G5" t="n">
-        <v>56135.50567060694</v>
+        <v>56135.50567060693</v>
       </c>
       <c r="H5" t="n">
         <v>56135.50567060694</v>
@@ -26491,25 +26491,25 @@
         <v>56135.50567060694</v>
       </c>
       <c r="J5" t="n">
-        <v>64215.71632531258</v>
+        <v>64215.7163253126</v>
       </c>
       <c r="K5" t="n">
-        <v>64215.71632531258</v>
+        <v>64215.71632531259</v>
       </c>
       <c r="L5" t="n">
-        <v>59381.89640810629</v>
+        <v>59381.89640810631</v>
       </c>
       <c r="M5" t="n">
-        <v>56135.50567060694</v>
+        <v>56135.50567060695</v>
       </c>
       <c r="N5" t="n">
         <v>56135.50567060694</v>
       </c>
       <c r="O5" t="n">
-        <v>53515.05706199374</v>
+        <v>53515.05706199376</v>
       </c>
       <c r="P5" t="n">
-        <v>53515.05706199374</v>
+        <v>53515.05706199376</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356185.1647775333</v>
+        <v>356185.1647775334</v>
       </c>
       <c r="C6" t="n">
-        <v>360187.5208978935</v>
+        <v>360187.5208978936</v>
       </c>
       <c r="D6" t="n">
-        <v>338032.8306099102</v>
+        <v>338032.8306099101</v>
       </c>
       <c r="E6" t="n">
-        <v>107264.2935334982</v>
+        <v>107103.9290293551</v>
       </c>
       <c r="F6" t="n">
-        <v>442592.2165412141</v>
+        <v>442431.8520370704</v>
       </c>
       <c r="G6" t="n">
-        <v>422567.1383734894</v>
+        <v>422567.1383734895</v>
       </c>
       <c r="H6" t="n">
-        <v>465817.008647064</v>
+        <v>465817.0086470636</v>
       </c>
       <c r="I6" t="n">
-        <v>465817.0086470639</v>
+        <v>465817.0086470638</v>
       </c>
       <c r="J6" t="n">
-        <v>359422.9090798974</v>
+        <v>359422.9090798977</v>
       </c>
       <c r="K6" t="n">
-        <v>456658.9786820175</v>
+        <v>456658.9786820177</v>
       </c>
       <c r="L6" t="n">
-        <v>393285.1165868792</v>
+        <v>393285.1165868793</v>
       </c>
       <c r="M6" t="n">
-        <v>337781.0112472472</v>
+        <v>337781.0112472476</v>
       </c>
       <c r="N6" t="n">
-        <v>465817.0086470635</v>
+        <v>465817.0086470636</v>
       </c>
       <c r="O6" t="n">
-        <v>437670.8575065906</v>
+        <v>437578.8259960979</v>
       </c>
       <c r="P6" t="n">
-        <v>452515.3333029569</v>
+        <v>452423.301792465</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>103.7881452533697</v>
       </c>
       <c r="K2" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="L2" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="M2" t="n">
         <v>157.8504830953376</v>
       </c>
       <c r="N2" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="O2" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="P2" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.2168637742915</v>
+        <v>118.216863774291</v>
       </c>
       <c r="F3" t="n">
         <v>118.2168637742911</v>
@@ -26753,13 +26753,13 @@
         <v>118.2168637742911</v>
       </c>
       <c r="H3" t="n">
-        <v>118.2168637742911</v>
+        <v>118.2168637742912</v>
       </c>
       <c r="I3" t="n">
-        <v>118.2168637742911</v>
+        <v>118.2168637742912</v>
       </c>
       <c r="J3" t="n">
-        <v>118.216863774291</v>
+        <v>118.2168637742912</v>
       </c>
       <c r="K3" t="n">
         <v>118.2168637742911</v>
@@ -26796,13 +26796,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>662.6323318583137</v>
+        <v>662.6323318583135</v>
       </c>
       <c r="F4" t="n">
-        <v>662.6323318583137</v>
+        <v>662.6323318583135</v>
       </c>
       <c r="G4" t="n">
-        <v>662.6323318583136</v>
+        <v>662.6323318583135</v>
       </c>
       <c r="H4" t="n">
         <v>662.6323318583135</v>
@@ -26811,25 +26811,25 @@
         <v>662.6323318583135</v>
       </c>
       <c r="J4" t="n">
-        <v>870.283274863939</v>
+        <v>870.2832748639393</v>
       </c>
       <c r="K4" t="n">
-        <v>870.2832748639389</v>
+        <v>870.2832748639393</v>
       </c>
       <c r="L4" t="n">
-        <v>746.496822246861</v>
+        <v>746.4968222468614</v>
       </c>
       <c r="M4" t="n">
-        <v>662.6323318583135</v>
+        <v>662.6323318583137</v>
       </c>
       <c r="N4" t="n">
-        <v>662.6323318583135</v>
+        <v>662.6323318583137</v>
       </c>
       <c r="O4" t="n">
-        <v>662.6323318583135</v>
+        <v>662.6323318583134</v>
       </c>
       <c r="P4" t="n">
-        <v>662.6323318583135</v>
+        <v>662.6323318583133</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>54.06233784196787</v>
+        <v>54.0623378419678</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>86.08836886305829</v>
+        <v>86.08836886305821</v>
       </c>
       <c r="M2" t="n">
-        <v>22.03630682087734</v>
+        <v>22.03630682087743</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.55559474545844</v>
+        <v>18.55559474545896</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.2168637742915</v>
+        <v>118.216863774291</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>123.7864526170779</v>
       </c>
       <c r="E4" t="n">
-        <v>526.9029325608819</v>
+        <v>526.9029325608817</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.5938896859794</v>
+        <v>219.5938896859797</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>443.0384421723344</v>
+        <v>443.038442172334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.06233784196787</v>
+        <v>54.0623378419678</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>123.7864526170779</v>
       </c>
       <c r="M4" t="n">
-        <v>526.9029325608819</v>
+        <v>526.9029325608817</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>399.4903313468757</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27433,7 +27433,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>251.8268142700215</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27442,7 +27442,7 @@
         <v>346.9666341606211</v>
       </c>
       <c r="X2" t="n">
-        <v>366.2668923933677</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27458,7 +27458,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>148.143689351101</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -27476,7 +27476,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -27512,16 +27512,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V3" t="n">
         <v>215.5923188900937</v>
       </c>
       <c r="W3" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>183.9948715606295</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27546,10 +27546,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>155.2876044654746</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>218.9042169721241</v>
+        <v>220.3278162164223</v>
       </c>
       <c r="U4" t="n">
-        <v>273.7989896797354</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>246.1850047168077</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>216.9969927832241</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27622,7 +27622,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>390.3281940418299</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>170.5793581501676</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27670,7 +27670,7 @@
         <v>210.172410125945</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>240.393536242792</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27701,7 +27701,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>135.0383824076418</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>176.2789053596189</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U6" t="n">
-        <v>204.366897797319</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -27758,7 +27758,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>183.9948715606295</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27783,16 +27783,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>156.7112037097728</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>145.835972088165</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>130.8180672729944</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27819,22 +27819,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>218.9042169721241</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>273.7989896797354</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>271.351890787421</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>292.5052746849462</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,13 +27862,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2135473829221</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>299.6745103965911</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>49.6272863185178</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,7 +27913,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>38.15364190246953</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27947,7 +27947,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>51.73400378574269</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010425</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28017,7 +28017,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>69.09043712796445</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>87.93277487055681</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>75.84326567291754</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.87887823584151</v>
+        <v>59.87887823584163</v>
       </c>
       <c r="S11" t="n">
         <v>103.7881452533697</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8788782358425</v>
+        <v>59.87887823584161</v>
       </c>
       <c r="S14" t="n">
         <v>103.7881452533697</v>
@@ -28524,7 +28524,7 @@
         <v>103.7881452533697</v>
       </c>
       <c r="P16" t="n">
-        <v>103.7881452533713</v>
+        <v>103.7881452533699</v>
       </c>
       <c r="Q16" t="n">
         <v>103.7881452533697</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8788782358416</v>
+        <v>59.87887823584161</v>
       </c>
       <c r="S17" t="n">
         <v>157.8504830953376</v>
@@ -28764,19 +28764,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.30122150292989</v>
+        <v>20.3012215029299</v>
       </c>
       <c r="R19" t="n">
         <v>138.4413076991812</v>
       </c>
       <c r="S19" t="n">
-        <v>157.8504830953376</v>
+        <v>106.6781154305628</v>
       </c>
       <c r="T19" t="n">
         <v>157.8504830953376</v>
       </c>
       <c r="U19" t="n">
-        <v>106.6781154305628</v>
+        <v>157.8504830953376</v>
       </c>
       <c r="V19" t="n">
         <v>157.8504830953376</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8788782358416</v>
+        <v>59.87887823584158</v>
       </c>
       <c r="S20" t="n">
         <v>157.8504830953376</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>99.78348075970584</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>157.8504830953376</v>
@@ -28980,7 +28980,7 @@
         <v>136.3501715703096</v>
       </c>
       <c r="J22" t="n">
-        <v>44.38498505943356</v>
+        <v>44.38498505943355</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.30122150292989</v>
+        <v>20.30122150292988</v>
       </c>
       <c r="R22" t="n">
         <v>138.4413076991812</v>
       </c>
       <c r="S22" t="n">
-        <v>157.8504830953376</v>
+        <v>106.6781154305627</v>
       </c>
       <c r="T22" t="n">
         <v>157.8504830953376</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8788782358416</v>
+        <v>59.87887823584158</v>
       </c>
       <c r="S23" t="n">
         <v>157.8504830953376</v>
@@ -29217,7 +29217,7 @@
         <v>136.3501715703096</v>
       </c>
       <c r="J25" t="n">
-        <v>44.38498505943356</v>
+        <v>44.38498505943355</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.30122150292989</v>
+        <v>20.30122150292988</v>
       </c>
       <c r="R25" t="n">
-        <v>87.26894003440643</v>
+        <v>138.4413076991812</v>
       </c>
       <c r="S25" t="n">
         <v>157.8504830953376</v>
@@ -29256,7 +29256,7 @@
         <v>157.8504830953376</v>
       </c>
       <c r="W25" t="n">
-        <v>157.8504830953376</v>
+        <v>106.6781154305627</v>
       </c>
       <c r="X25" t="n">
         <v>157.8504830953376</v>
@@ -29296,7 +29296,7 @@
         <v>103.7881452533697</v>
       </c>
       <c r="J26" t="n">
-        <v>103.7881452533697</v>
+        <v>51.78755114024997</v>
       </c>
       <c r="K26" t="n">
         <v>103.7881452533697</v>
@@ -29311,7 +29311,7 @@
         <v>103.7881452533697</v>
       </c>
       <c r="O26" t="n">
-        <v>51.78755114025023</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="P26" t="n">
         <v>103.7881452533697</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="C29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="D29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="E29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="F29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="G29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="H29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="I29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="J29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="K29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="M29" t="n">
-        <v>103.7881452533698</v>
+        <v>51.7875511402508</v>
       </c>
       <c r="N29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="O29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="P29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.69681815777705</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8788782358416</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="S29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="T29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="U29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="V29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="W29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="X29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="C31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="D31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="E31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="F31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="G31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="H31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="I31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="J31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="K31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="L31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="M31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="N31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533708</v>
       </c>
       <c r="O31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="P31" t="n">
-        <v>103.7881452533685</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="R31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="S31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="T31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="U31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="V31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="W31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="X31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.7881452533698</v>
+        <v>103.7881452533697</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="D32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="E32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="F32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="G32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="H32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="I32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="J32" t="n">
-        <v>120.3200229829883</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.8141762744602</v>
+        <v>60.44114474714826</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="R32" t="n">
-        <v>135.8141762744602</v>
+        <v>59.8788782358416</v>
       </c>
       <c r="S32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="T32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="U32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="V32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="W32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="X32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="Y32" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="C34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="D34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="E34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="F34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="G34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="H34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="I34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="J34" t="n">
         <v>44.38498505943356</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>127.2853738820782</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.8141762744602</v>
+        <v>127.2853738820797</v>
       </c>
       <c r="R34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="S34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="T34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="U34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="V34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="W34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="X34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.8141762744602</v>
+        <v>135.8141762744601</v>
       </c>
     </row>
     <row r="35">
@@ -30144,7 +30144,7 @@
         <v>157.8504830953376</v>
       </c>
       <c r="C37" t="n">
-        <v>106.6781154305627</v>
+        <v>157.8504830953376</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30210,7 +30210,7 @@
         <v>157.8504830953376</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.8504830953376</v>
+        <v>106.6781154305628</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="C38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="D38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="E38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="F38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="G38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="H38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="I38" t="n">
         <v>152.7671950820523</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8788782358416</v>
+        <v>59.8788782358425</v>
       </c>
       <c r="S38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="T38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="U38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="V38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="W38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="X38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="Y38" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="C40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="D40" t="n">
-        <v>100.3688065757401</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="H40" t="n">
         <v>155.8835729853836</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.30122150292989</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>138.4413076991812</v>
       </c>
       <c r="S40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="T40" t="n">
-        <v>157.8504830953376</v>
+        <v>126.9793369334931</v>
       </c>
       <c r="U40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="V40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="W40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="X40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.8504830953376</v>
+        <v>157.8504830953375</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="C41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="D41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="E41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="F41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="G41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="H41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="I41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>59.8788782358416</v>
       </c>
       <c r="S41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="T41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="U41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="V41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="W41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="X41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="C43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="D43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="E43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="F43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="G43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="H43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="I43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="J43" t="n">
         <v>44.38498505943356</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6802704293941</v>
+        <v>32.16851697370186</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>32.16851697371085</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="R43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="S43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="T43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="U43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="V43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="W43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="X43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="C44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="D44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="E44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="F44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="G44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="H44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="I44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>59.8788782358416</v>
       </c>
       <c r="S44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="T44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="U44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="V44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="W44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="X44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="Y44" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="C46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="D46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="E46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="F46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="G46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="H46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="I46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="J46" t="n">
         <v>44.38498505943356</v>
       </c>
       <c r="K46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>32.16851697370186</v>
       </c>
       <c r="M46" t="n">
-        <v>11.86729547078093</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6802704293941</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>126.6802704293941</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.30122150292989</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="R46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="S46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="T46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="U46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="V46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="W46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="X46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
       <c r="Y46" t="n">
-        <v>126.6802704293941</v>
+        <v>126.6802704293945</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4752436734644879</v>
+        <v>0.4752436734644861</v>
       </c>
       <c r="H11" t="n">
-        <v>4.867089270868188</v>
+        <v>4.867089270868169</v>
       </c>
       <c r="I11" t="n">
-        <v>18.32183172123969</v>
+        <v>18.32183172123962</v>
       </c>
       <c r="J11" t="n">
-        <v>40.33571273070662</v>
+        <v>40.33571273070646</v>
       </c>
       <c r="K11" t="n">
-        <v>60.45277742845841</v>
+        <v>60.45277742845817</v>
       </c>
       <c r="L11" t="n">
-        <v>74.99701600024724</v>
+        <v>74.99701600024694</v>
       </c>
       <c r="M11" t="n">
-        <v>83.44863067822133</v>
+        <v>83.44863067822099</v>
       </c>
       <c r="N11" t="n">
-        <v>84.79891676545232</v>
+        <v>84.79891676545198</v>
       </c>
       <c r="O11" t="n">
-        <v>80.0732124874398</v>
+        <v>80.07321248743949</v>
       </c>
       <c r="P11" t="n">
-        <v>68.34063429878525</v>
+        <v>68.34063429878498</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.32097024283826</v>
+        <v>51.32097024283806</v>
       </c>
       <c r="R11" t="n">
-        <v>29.85302540326367</v>
+        <v>29.85302540326355</v>
       </c>
       <c r="S11" t="n">
-        <v>10.82961520907203</v>
+        <v>10.82961520907199</v>
       </c>
       <c r="T11" t="n">
-        <v>2.080379180590797</v>
+        <v>2.080379180590789</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03801949387715903</v>
+        <v>0.03801949387715887</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2542777824579099</v>
+        <v>0.2542777824579089</v>
       </c>
       <c r="H12" t="n">
-        <v>2.455788056896131</v>
+        <v>2.455788056896121</v>
       </c>
       <c r="I12" t="n">
-        <v>8.754739439888567</v>
+        <v>8.754739439888533</v>
       </c>
       <c r="J12" t="n">
-        <v>24.02367417511333</v>
+        <v>24.02367417511324</v>
       </c>
       <c r="K12" t="n">
-        <v>41.0602855997933</v>
+        <v>41.06028559979313</v>
       </c>
       <c r="L12" t="n">
-        <v>55.21062114288962</v>
+        <v>55.2106211428894</v>
       </c>
       <c r="M12" t="n">
-        <v>64.42819075698884</v>
+        <v>64.42819075698858</v>
       </c>
       <c r="N12" t="n">
-        <v>66.13341325426141</v>
+        <v>66.13341325426116</v>
       </c>
       <c r="O12" t="n">
-        <v>60.49915291664141</v>
+        <v>60.49915291664117</v>
       </c>
       <c r="P12" t="n">
-        <v>48.55590391514248</v>
+        <v>48.55590391514228</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.45833588006585</v>
+        <v>32.45833588006571</v>
       </c>
       <c r="R12" t="n">
-        <v>15.78752758102708</v>
+        <v>15.78752758102702</v>
       </c>
       <c r="S12" t="n">
-        <v>4.723098283812491</v>
+        <v>4.723098283812472</v>
       </c>
       <c r="T12" t="n">
-        <v>1.02491790385447</v>
+        <v>1.024917903854466</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01672880147749408</v>
+        <v>0.01672880147749402</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2131779510683944</v>
+        <v>0.2131779510683936</v>
       </c>
       <c r="H13" t="n">
-        <v>1.895345783135363</v>
+        <v>1.895345783135355</v>
       </c>
       <c r="I13" t="n">
-        <v>6.410842383038627</v>
+        <v>6.410842383038601</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07168114053549</v>
+        <v>15.07168114053542</v>
       </c>
       <c r="K13" t="n">
-        <v>24.76740195140073</v>
+        <v>24.76740195140063</v>
       </c>
       <c r="L13" t="n">
-        <v>31.69374737975021</v>
+        <v>31.69374737975009</v>
       </c>
       <c r="M13" t="n">
-        <v>33.4166128206575</v>
+        <v>33.41661282065736</v>
       </c>
       <c r="N13" t="n">
-        <v>32.62204045758442</v>
+        <v>32.62204045758429</v>
       </c>
       <c r="O13" t="n">
-        <v>30.13173439283089</v>
+        <v>30.13173439283077</v>
       </c>
       <c r="P13" t="n">
-        <v>25.78290419103562</v>
+        <v>25.78290419103552</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.85074642991801</v>
+        <v>17.85074642991794</v>
       </c>
       <c r="R13" t="n">
-        <v>9.585255872584352</v>
+        <v>9.585255872584312</v>
       </c>
       <c r="S13" t="n">
-        <v>3.715110292710109</v>
+        <v>3.715110292710094</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9108512454740487</v>
+        <v>0.9108512454740451</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01162788824009425</v>
+        <v>0.01162788824009421</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4752436734644866</v>
+        <v>0.4752436734644865</v>
       </c>
       <c r="H14" t="n">
-        <v>4.867089270868175</v>
+        <v>4.867089270868173</v>
       </c>
       <c r="I14" t="n">
-        <v>18.32183172123964</v>
+        <v>18.32183172123963</v>
       </c>
       <c r="J14" t="n">
-        <v>40.33571273070651</v>
+        <v>40.3357127307065</v>
       </c>
       <c r="K14" t="n">
-        <v>60.45277742845824</v>
+        <v>60.45277742845822</v>
       </c>
       <c r="L14" t="n">
-        <v>74.99701600024704</v>
+        <v>74.99701600024702</v>
       </c>
       <c r="M14" t="n">
-        <v>83.44863067822111</v>
+        <v>83.44863067822106</v>
       </c>
       <c r="N14" t="n">
-        <v>84.79891676545208</v>
+        <v>84.79891676545205</v>
       </c>
       <c r="O14" t="n">
-        <v>80.07321248743959</v>
+        <v>80.07321248743956</v>
       </c>
       <c r="P14" t="n">
-        <v>68.34063429878506</v>
+        <v>68.34063429878503</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.32097024283811</v>
+        <v>51.3209702428381</v>
       </c>
       <c r="R14" t="n">
-        <v>29.85302540326359</v>
+        <v>29.85302540326358</v>
       </c>
       <c r="S14" t="n">
         <v>10.829615209072</v>
@@ -32029,7 +32029,7 @@
         <v>2.080379180590791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03801949387715892</v>
+        <v>0.03801949387715891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2542777824579093</v>
+        <v>0.2542777824579092</v>
       </c>
       <c r="H15" t="n">
-        <v>2.455788056896124</v>
+        <v>2.455788056896123</v>
       </c>
       <c r="I15" t="n">
-        <v>8.754739439888544</v>
+        <v>8.754739439888541</v>
       </c>
       <c r="J15" t="n">
-        <v>24.02367417511326</v>
+        <v>24.02367417511325</v>
       </c>
       <c r="K15" t="n">
-        <v>41.06028559979318</v>
+        <v>41.06028559979317</v>
       </c>
       <c r="L15" t="n">
-        <v>55.21062114288947</v>
+        <v>55.21062114288945</v>
       </c>
       <c r="M15" t="n">
-        <v>64.42819075698867</v>
+        <v>64.42819075698864</v>
       </c>
       <c r="N15" t="n">
-        <v>66.13341325426123</v>
+        <v>66.13341325426121</v>
       </c>
       <c r="O15" t="n">
-        <v>60.49915291664124</v>
+        <v>60.49915291664122</v>
       </c>
       <c r="P15" t="n">
-        <v>48.55590391514234</v>
+        <v>48.55590391514232</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.45833588006575</v>
+        <v>32.45833588006574</v>
       </c>
       <c r="R15" t="n">
-        <v>15.78752758102704</v>
+        <v>15.78752758102703</v>
       </c>
       <c r="S15" t="n">
-        <v>4.723098283812478</v>
+        <v>4.723098283812476</v>
       </c>
       <c r="T15" t="n">
         <v>1.024917903854467</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01672880147749404</v>
+        <v>0.01672880147749403</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>0.2131779510683938</v>
       </c>
       <c r="H16" t="n">
-        <v>1.895345783135358</v>
+        <v>1.895345783135357</v>
       </c>
       <c r="I16" t="n">
-        <v>6.410842383038609</v>
+        <v>6.410842383038607</v>
       </c>
       <c r="J16" t="n">
         <v>15.07168114053544</v>
       </c>
       <c r="K16" t="n">
-        <v>24.76740195140066</v>
+        <v>24.76740195140065</v>
       </c>
       <c r="L16" t="n">
-        <v>31.69374737975012</v>
+        <v>31.69374737975011</v>
       </c>
       <c r="M16" t="n">
-        <v>33.41661282065741</v>
+        <v>33.41661282065739</v>
       </c>
       <c r="N16" t="n">
-        <v>32.62204045758433</v>
+        <v>32.62204045758431</v>
       </c>
       <c r="O16" t="n">
-        <v>30.1317343928308</v>
+        <v>30.13173439283079</v>
       </c>
       <c r="P16" t="n">
-        <v>25.78290419103555</v>
+        <v>25.78290419103554</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.85074642991796</v>
+        <v>17.85074642991795</v>
       </c>
       <c r="R16" t="n">
-        <v>9.585255872584325</v>
+        <v>9.585255872584321</v>
       </c>
       <c r="S16" t="n">
-        <v>3.715110292710099</v>
+        <v>3.715110292710097</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9108512454740462</v>
+        <v>0.9108512454740458</v>
       </c>
       <c r="U16" t="n">
         <v>0.01162788824009422</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4752436734644866</v>
+        <v>0.4752436734644865</v>
       </c>
       <c r="H17" t="n">
-        <v>4.867089270868175</v>
+        <v>4.867089270868173</v>
       </c>
       <c r="I17" t="n">
-        <v>18.32183172123964</v>
+        <v>18.32183172123963</v>
       </c>
       <c r="J17" t="n">
-        <v>40.33571273070651</v>
+        <v>40.3357127307065</v>
       </c>
       <c r="K17" t="n">
-        <v>60.45277742845824</v>
+        <v>60.45277742845822</v>
       </c>
       <c r="L17" t="n">
-        <v>74.99701600024704</v>
+        <v>74.99701600024702</v>
       </c>
       <c r="M17" t="n">
-        <v>83.44863067822111</v>
+        <v>83.44863067822106</v>
       </c>
       <c r="N17" t="n">
-        <v>84.79891676545208</v>
+        <v>84.79891676545205</v>
       </c>
       <c r="O17" t="n">
-        <v>80.07321248743959</v>
+        <v>80.07321248743956</v>
       </c>
       <c r="P17" t="n">
-        <v>68.34063429878506</v>
+        <v>68.34063429878503</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.32097024283811</v>
+        <v>51.3209702428381</v>
       </c>
       <c r="R17" t="n">
-        <v>29.85302540326359</v>
+        <v>29.85302540326358</v>
       </c>
       <c r="S17" t="n">
         <v>10.829615209072</v>
@@ -32266,7 +32266,7 @@
         <v>2.080379180590791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03801949387715892</v>
+        <v>0.03801949387715891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2542777824579093</v>
+        <v>0.2542777824579092</v>
       </c>
       <c r="H18" t="n">
-        <v>2.455788056896124</v>
+        <v>2.455788056896123</v>
       </c>
       <c r="I18" t="n">
-        <v>8.754739439888544</v>
+        <v>8.754739439888541</v>
       </c>
       <c r="J18" t="n">
-        <v>24.02367417511326</v>
+        <v>24.02367417511325</v>
       </c>
       <c r="K18" t="n">
-        <v>41.06028559979318</v>
+        <v>41.06028559979317</v>
       </c>
       <c r="L18" t="n">
-        <v>55.21062114288947</v>
+        <v>55.21062114288945</v>
       </c>
       <c r="M18" t="n">
-        <v>64.42819075698867</v>
+        <v>64.42819075698864</v>
       </c>
       <c r="N18" t="n">
-        <v>66.13341325426123</v>
+        <v>66.13341325426121</v>
       </c>
       <c r="O18" t="n">
-        <v>60.49915291664124</v>
+        <v>60.49915291664122</v>
       </c>
       <c r="P18" t="n">
-        <v>48.55590391514234</v>
+        <v>48.55590391514232</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.45833588006575</v>
+        <v>32.45833588006574</v>
       </c>
       <c r="R18" t="n">
-        <v>15.78752758102704</v>
+        <v>15.78752758102703</v>
       </c>
       <c r="S18" t="n">
-        <v>4.723098283812478</v>
+        <v>4.723098283812476</v>
       </c>
       <c r="T18" t="n">
         <v>1.024917903854467</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01672880147749404</v>
+        <v>0.01672880147749403</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>0.2131779510683938</v>
       </c>
       <c r="H19" t="n">
-        <v>1.895345783135358</v>
+        <v>1.895345783135357</v>
       </c>
       <c r="I19" t="n">
-        <v>6.410842383038609</v>
+        <v>6.410842383038607</v>
       </c>
       <c r="J19" t="n">
         <v>15.07168114053544</v>
       </c>
       <c r="K19" t="n">
-        <v>24.76740195140066</v>
+        <v>24.76740195140065</v>
       </c>
       <c r="L19" t="n">
-        <v>31.69374737975012</v>
+        <v>31.69374737975011</v>
       </c>
       <c r="M19" t="n">
-        <v>33.41661282065741</v>
+        <v>33.41661282065739</v>
       </c>
       <c r="N19" t="n">
-        <v>32.62204045758433</v>
+        <v>32.62204045758431</v>
       </c>
       <c r="O19" t="n">
-        <v>30.1317343928308</v>
+        <v>30.13173439283079</v>
       </c>
       <c r="P19" t="n">
-        <v>25.78290419103555</v>
+        <v>25.78290419103554</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.85074642991796</v>
+        <v>17.85074642991795</v>
       </c>
       <c r="R19" t="n">
-        <v>9.585255872584325</v>
+        <v>9.585255872584321</v>
       </c>
       <c r="S19" t="n">
-        <v>3.715110292710099</v>
+        <v>3.715110292710097</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9108512454740462</v>
+        <v>0.9108512454740458</v>
       </c>
       <c r="U19" t="n">
         <v>0.01162788824009422</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4752436734644866</v>
+        <v>0.4752436734644868</v>
       </c>
       <c r="H20" t="n">
-        <v>4.867089270868175</v>
+        <v>4.867089270868177</v>
       </c>
       <c r="I20" t="n">
-        <v>18.32183172123964</v>
+        <v>18.32183172123965</v>
       </c>
       <c r="J20" t="n">
-        <v>40.33571273070651</v>
+        <v>40.33571273070653</v>
       </c>
       <c r="K20" t="n">
-        <v>60.45277742845824</v>
+        <v>60.45277742845826</v>
       </c>
       <c r="L20" t="n">
-        <v>74.99701600024704</v>
+        <v>74.99701600024707</v>
       </c>
       <c r="M20" t="n">
-        <v>83.44863067822111</v>
+        <v>83.44863067822114</v>
       </c>
       <c r="N20" t="n">
-        <v>84.79891676545208</v>
+        <v>84.79891676545211</v>
       </c>
       <c r="O20" t="n">
-        <v>80.07321248743959</v>
+        <v>80.07321248743962</v>
       </c>
       <c r="P20" t="n">
-        <v>68.34063429878506</v>
+        <v>68.34063429878509</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.32097024283811</v>
+        <v>51.32097024283814</v>
       </c>
       <c r="R20" t="n">
-        <v>29.85302540326359</v>
+        <v>29.8530254032636</v>
       </c>
       <c r="S20" t="n">
         <v>10.829615209072</v>
       </c>
       <c r="T20" t="n">
-        <v>2.080379180590791</v>
+        <v>2.080379180590792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03801949387715892</v>
+        <v>0.03801949387715894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>0.2542777824579093</v>
       </c>
       <c r="H21" t="n">
-        <v>2.455788056896124</v>
+        <v>2.455788056896125</v>
       </c>
       <c r="I21" t="n">
-        <v>8.754739439888544</v>
+        <v>8.754739439888546</v>
       </c>
       <c r="J21" t="n">
-        <v>24.02367417511326</v>
+        <v>24.02367417511327</v>
       </c>
       <c r="K21" t="n">
-        <v>41.06028559979318</v>
+        <v>41.0602855997932</v>
       </c>
       <c r="L21" t="n">
-        <v>55.21062114288947</v>
+        <v>55.21062114288949</v>
       </c>
       <c r="M21" t="n">
-        <v>64.42819075698867</v>
+        <v>64.42819075698868</v>
       </c>
       <c r="N21" t="n">
-        <v>66.13341325426123</v>
+        <v>66.13341325426126</v>
       </c>
       <c r="O21" t="n">
-        <v>60.49915291664124</v>
+        <v>60.49915291664126</v>
       </c>
       <c r="P21" t="n">
-        <v>48.55590391514234</v>
+        <v>48.55590391514236</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.45833588006575</v>
+        <v>32.45833588006577</v>
       </c>
       <c r="R21" t="n">
         <v>15.78752758102704</v>
       </c>
       <c r="S21" t="n">
-        <v>4.723098283812478</v>
+        <v>4.72309828381248</v>
       </c>
       <c r="T21" t="n">
-        <v>1.024917903854467</v>
+        <v>1.024917903854468</v>
       </c>
       <c r="U21" t="n">
         <v>0.01672880147749404</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2131779510683938</v>
+        <v>0.2131779510683939</v>
       </c>
       <c r="H22" t="n">
         <v>1.895345783135358</v>
       </c>
       <c r="I22" t="n">
-        <v>6.410842383038609</v>
+        <v>6.410842383038612</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07168114053544</v>
+        <v>15.07168114053545</v>
       </c>
       <c r="K22" t="n">
-        <v>24.76740195140066</v>
+        <v>24.76740195140067</v>
       </c>
       <c r="L22" t="n">
-        <v>31.69374737975012</v>
+        <v>31.69374737975013</v>
       </c>
       <c r="M22" t="n">
-        <v>33.41661282065741</v>
+        <v>33.41661282065742</v>
       </c>
       <c r="N22" t="n">
-        <v>32.62204045758433</v>
+        <v>32.62204045758434</v>
       </c>
       <c r="O22" t="n">
-        <v>30.1317343928308</v>
+        <v>30.13173439283082</v>
       </c>
       <c r="P22" t="n">
-        <v>25.78290419103555</v>
+        <v>25.78290419103556</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.85074642991796</v>
+        <v>17.85074642991797</v>
       </c>
       <c r="R22" t="n">
-        <v>9.585255872584325</v>
+        <v>9.585255872584328</v>
       </c>
       <c r="S22" t="n">
-        <v>3.715110292710099</v>
+        <v>3.7151102927101</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9108512454740462</v>
+        <v>0.9108512454740465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01162788824009422</v>
+        <v>0.01162788824009423</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4752436734644866</v>
+        <v>0.475243673464487</v>
       </c>
       <c r="H23" t="n">
-        <v>4.867089270868175</v>
+        <v>4.867089270868179</v>
       </c>
       <c r="I23" t="n">
-        <v>18.32183172123964</v>
+        <v>18.32183172123965</v>
       </c>
       <c r="J23" t="n">
-        <v>40.33571273070651</v>
+        <v>40.33571273070654</v>
       </c>
       <c r="K23" t="n">
-        <v>60.45277742845824</v>
+        <v>60.45277742845828</v>
       </c>
       <c r="L23" t="n">
-        <v>74.99701600024704</v>
+        <v>74.9970160002471</v>
       </c>
       <c r="M23" t="n">
-        <v>83.44863067822111</v>
+        <v>83.44863067822116</v>
       </c>
       <c r="N23" t="n">
-        <v>84.79891676545208</v>
+        <v>84.79891676545215</v>
       </c>
       <c r="O23" t="n">
-        <v>80.07321248743959</v>
+        <v>80.07321248743965</v>
       </c>
       <c r="P23" t="n">
-        <v>68.34063429878506</v>
+        <v>68.3406342987851</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.32097024283811</v>
+        <v>51.32097024283816</v>
       </c>
       <c r="R23" t="n">
-        <v>29.85302540326359</v>
+        <v>29.85302540326361</v>
       </c>
       <c r="S23" t="n">
-        <v>10.829615209072</v>
+        <v>10.82961520907201</v>
       </c>
       <c r="T23" t="n">
-        <v>2.080379180590791</v>
+        <v>2.080379180590793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03801949387715892</v>
+        <v>0.03801949387715895</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2542777824579093</v>
+        <v>0.2542777824579094</v>
       </c>
       <c r="H24" t="n">
-        <v>2.455788056896124</v>
+        <v>2.455788056896126</v>
       </c>
       <c r="I24" t="n">
-        <v>8.754739439888544</v>
+        <v>8.754739439888549</v>
       </c>
       <c r="J24" t="n">
-        <v>24.02367417511326</v>
+        <v>24.02367417511328</v>
       </c>
       <c r="K24" t="n">
-        <v>41.06028559979318</v>
+        <v>41.06028559979321</v>
       </c>
       <c r="L24" t="n">
-        <v>55.21062114288947</v>
+        <v>55.21062114288951</v>
       </c>
       <c r="M24" t="n">
-        <v>64.42819075698867</v>
+        <v>64.42819075698871</v>
       </c>
       <c r="N24" t="n">
-        <v>66.13341325426123</v>
+        <v>66.13341325426128</v>
       </c>
       <c r="O24" t="n">
-        <v>60.49915291664124</v>
+        <v>60.49915291664129</v>
       </c>
       <c r="P24" t="n">
-        <v>48.55590391514234</v>
+        <v>48.55590391514238</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.45833588006575</v>
+        <v>32.45833588006577</v>
       </c>
       <c r="R24" t="n">
-        <v>15.78752758102704</v>
+        <v>15.78752758102705</v>
       </c>
       <c r="S24" t="n">
-        <v>4.723098283812478</v>
+        <v>4.723098283812481</v>
       </c>
       <c r="T24" t="n">
-        <v>1.024917903854467</v>
+        <v>1.024917903854468</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01672880147749404</v>
+        <v>0.01672880147749405</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2131779510683938</v>
+        <v>0.213177951068394</v>
       </c>
       <c r="H25" t="n">
-        <v>1.895345783135358</v>
+        <v>1.895345783135359</v>
       </c>
       <c r="I25" t="n">
-        <v>6.410842383038609</v>
+        <v>6.410842383038614</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07168114053544</v>
+        <v>15.07168114053546</v>
       </c>
       <c r="K25" t="n">
-        <v>24.76740195140066</v>
+        <v>24.76740195140068</v>
       </c>
       <c r="L25" t="n">
-        <v>31.69374737975012</v>
+        <v>31.69374737975015</v>
       </c>
       <c r="M25" t="n">
-        <v>33.41661282065741</v>
+        <v>33.41661282065743</v>
       </c>
       <c r="N25" t="n">
-        <v>32.62204045758433</v>
+        <v>32.62204045758435</v>
       </c>
       <c r="O25" t="n">
-        <v>30.1317343928308</v>
+        <v>30.13173439283083</v>
       </c>
       <c r="P25" t="n">
-        <v>25.78290419103555</v>
+        <v>25.78290419103557</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.85074642991796</v>
+        <v>17.85074642991798</v>
       </c>
       <c r="R25" t="n">
-        <v>9.585255872584325</v>
+        <v>9.585255872584332</v>
       </c>
       <c r="S25" t="n">
-        <v>3.715110292710099</v>
+        <v>3.715110292710101</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9108512454740462</v>
+        <v>0.9108512454740468</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01162788824009422</v>
+        <v>0.01162788824009423</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4752436734644861</v>
+        <v>0.475243673464487</v>
       </c>
       <c r="H26" t="n">
-        <v>4.86708927086817</v>
+        <v>4.867089270868179</v>
       </c>
       <c r="I26" t="n">
-        <v>18.32183172123962</v>
+        <v>18.32183172123965</v>
       </c>
       <c r="J26" t="n">
-        <v>40.33571273070647</v>
+        <v>40.33571273070654</v>
       </c>
       <c r="K26" t="n">
-        <v>60.45277742845818</v>
+        <v>60.45277742845828</v>
       </c>
       <c r="L26" t="n">
-        <v>74.99701600024696</v>
+        <v>74.9970160002471</v>
       </c>
       <c r="M26" t="n">
-        <v>83.44863067822101</v>
+        <v>83.44863067822116</v>
       </c>
       <c r="N26" t="n">
-        <v>84.79891676545199</v>
+        <v>84.79891676545215</v>
       </c>
       <c r="O26" t="n">
-        <v>80.07321248743951</v>
+        <v>80.07321248743965</v>
       </c>
       <c r="P26" t="n">
-        <v>68.34063429878499</v>
+        <v>68.3406342987851</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.32097024283807</v>
+        <v>51.32097024283816</v>
       </c>
       <c r="R26" t="n">
-        <v>29.85302540326355</v>
+        <v>29.85302540326361</v>
       </c>
       <c r="S26" t="n">
-        <v>10.82961520907199</v>
+        <v>10.82961520907201</v>
       </c>
       <c r="T26" t="n">
-        <v>2.080379180590789</v>
+        <v>2.080379180590793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03801949387715888</v>
+        <v>0.03801949387715895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.254277782457909</v>
+        <v>0.2542777824579094</v>
       </c>
       <c r="H27" t="n">
-        <v>2.455788056896121</v>
+        <v>2.455788056896126</v>
       </c>
       <c r="I27" t="n">
-        <v>8.754739439888533</v>
+        <v>8.754739439888549</v>
       </c>
       <c r="J27" t="n">
-        <v>24.02367417511324</v>
+        <v>24.02367417511328</v>
       </c>
       <c r="K27" t="n">
-        <v>41.06028559979314</v>
+        <v>41.06028559979321</v>
       </c>
       <c r="L27" t="n">
-        <v>55.21062114288941</v>
+        <v>55.21062114288951</v>
       </c>
       <c r="M27" t="n">
-        <v>64.4281907569886</v>
+        <v>64.42819075698871</v>
       </c>
       <c r="N27" t="n">
-        <v>66.13341325426116</v>
+        <v>66.13341325426128</v>
       </c>
       <c r="O27" t="n">
-        <v>60.49915291664117</v>
+        <v>60.49915291664129</v>
       </c>
       <c r="P27" t="n">
-        <v>48.55590391514229</v>
+        <v>48.55590391514238</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.45833588006572</v>
+        <v>32.45833588006577</v>
       </c>
       <c r="R27" t="n">
-        <v>15.78752758102702</v>
+        <v>15.78752758102705</v>
       </c>
       <c r="S27" t="n">
-        <v>4.723098283812472</v>
+        <v>4.723098283812481</v>
       </c>
       <c r="T27" t="n">
-        <v>1.024917903854466</v>
+        <v>1.024917903854468</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01672880147749402</v>
+        <v>0.01672880147749405</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2131779510683936</v>
+        <v>0.213177951068394</v>
       </c>
       <c r="H28" t="n">
-        <v>1.895345783135356</v>
+        <v>1.895345783135359</v>
       </c>
       <c r="I28" t="n">
-        <v>6.410842383038602</v>
+        <v>6.410842383038614</v>
       </c>
       <c r="J28" t="n">
-        <v>15.07168114053543</v>
+        <v>15.07168114053546</v>
       </c>
       <c r="K28" t="n">
-        <v>24.76740195140063</v>
+        <v>24.76740195140068</v>
       </c>
       <c r="L28" t="n">
-        <v>31.69374737975009</v>
+        <v>31.69374737975015</v>
       </c>
       <c r="M28" t="n">
-        <v>33.41661282065737</v>
+        <v>33.41661282065743</v>
       </c>
       <c r="N28" t="n">
-        <v>32.62204045758429</v>
+        <v>32.62204045758435</v>
       </c>
       <c r="O28" t="n">
-        <v>30.13173439283077</v>
+        <v>30.13173439283083</v>
       </c>
       <c r="P28" t="n">
-        <v>25.78290419103552</v>
+        <v>25.78290419103557</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.85074642991794</v>
+        <v>17.85074642991798</v>
       </c>
       <c r="R28" t="n">
-        <v>9.585255872584314</v>
+        <v>9.585255872584332</v>
       </c>
       <c r="S28" t="n">
-        <v>3.715110292710095</v>
+        <v>3.715110292710101</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9108512454740452</v>
+        <v>0.9108512454740468</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01162788824009421</v>
+        <v>0.01162788824009423</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,11 +34696,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>11.94294668035388</v>
@@ -34860,19 +34860,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L4" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M4" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O7" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="P7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.51958086843886</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="O8" t="n">
-        <v>130.2453831642022</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>113.0615150264699</v>
+        <v>113.0615150264697</v>
       </c>
       <c r="K11" t="n">
-        <v>303.0188097969258</v>
+        <v>303.0188097969256</v>
       </c>
       <c r="L11" t="n">
-        <v>426.3963827527182</v>
+        <v>426.3963827527179</v>
       </c>
       <c r="M11" t="n">
-        <v>480.6599097217445</v>
+        <v>480.6599097217442</v>
       </c>
       <c r="N11" t="n">
-        <v>466.9518043288015</v>
+        <v>466.9518043288012</v>
       </c>
       <c r="O11" t="n">
-        <v>388.1586513488883</v>
+        <v>388.1586513488879</v>
       </c>
       <c r="P11" t="n">
-        <v>298.8021458705562</v>
+        <v>298.8021458705559</v>
       </c>
       <c r="Q11" t="n">
-        <v>146.7070850777241</v>
+        <v>146.7070850777239</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>84.88644845097812</v>
+        <v>84.88644845097804</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>215.3764155202166</v>
       </c>
       <c r="L12" t="n">
-        <v>286.4007548635367</v>
+        <v>424.7276364662386</v>
       </c>
       <c r="M12" t="n">
-        <v>554.3608710703488</v>
+        <v>554.3608710703486</v>
       </c>
       <c r="N12" t="n">
-        <v>582.5633588331726</v>
+        <v>582.5633588331724</v>
       </c>
       <c r="O12" t="n">
-        <v>456.6607193652786</v>
+        <v>456.6607193652784</v>
       </c>
       <c r="P12" t="n">
-        <v>353.7032971229175</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.8236184917772</v>
+        <v>191.823618491777</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.40316019393622</v>
+        <v>59.40316019393617</v>
       </c>
       <c r="K13" t="n">
-        <v>162.4991711892588</v>
+        <v>162.4991711892587</v>
       </c>
       <c r="L13" t="n">
-        <v>237.1052051586346</v>
+        <v>237.1052051586345</v>
       </c>
       <c r="M13" t="n">
-        <v>256.3901177988775</v>
+        <v>256.3901177988773</v>
       </c>
       <c r="N13" t="n">
-        <v>256.0287127307525</v>
+        <v>256.0287127307524</v>
       </c>
       <c r="O13" t="n">
-        <v>233.3781084297256</v>
+        <v>233.3781084297254</v>
       </c>
       <c r="P13" t="n">
-        <v>193.1755784627264</v>
+        <v>193.1755784627263</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.4869237504399</v>
+        <v>83.48692375043984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>480.6599097217443</v>
       </c>
       <c r="N14" t="n">
-        <v>466.9518043288013</v>
+        <v>466.9518043288012</v>
       </c>
       <c r="O14" t="n">
         <v>388.158651348888</v>
       </c>
       <c r="P14" t="n">
-        <v>298.802145870556</v>
+        <v>298.8021458705559</v>
       </c>
       <c r="Q14" t="n">
-        <v>146.707085077724</v>
+        <v>146.7070850777239</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>84.88644845097807</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>272.8689245494787</v>
@@ -35732,10 +35732,10 @@
         <v>424.7276364662386</v>
       </c>
       <c r="M15" t="n">
-        <v>554.3608710703487</v>
+        <v>228.0515133691469</v>
       </c>
       <c r="N15" t="n">
-        <v>363.1911711727695</v>
+        <v>582.5633588331724</v>
       </c>
       <c r="O15" t="n">
         <v>456.6607193652785</v>
@@ -35744,7 +35744,7 @@
         <v>353.7032971229173</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>191.8236184917771</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.40316019393612</v>
+        <v>59.40316019393619</v>
       </c>
       <c r="K16" t="n">
-        <v>162.4991711892586</v>
+        <v>162.4991711892587</v>
       </c>
       <c r="L16" t="n">
-        <v>237.1052051586344</v>
+        <v>237.1052051586345</v>
       </c>
       <c r="M16" t="n">
-        <v>256.3901177988773</v>
+        <v>256.3901177988774</v>
       </c>
       <c r="N16" t="n">
         <v>256.0287127307524</v>
       </c>
       <c r="O16" t="n">
-        <v>233.3781084297254</v>
+        <v>233.3781084297255</v>
       </c>
       <c r="P16" t="n">
-        <v>193.1755784627278</v>
+        <v>193.1755784627264</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.48692375043979</v>
+        <v>83.48692375043984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>480.6599097217443</v>
       </c>
       <c r="N17" t="n">
-        <v>466.9518043288013</v>
+        <v>466.9518043288012</v>
       </c>
       <c r="O17" t="n">
         <v>388.158651348888</v>
       </c>
       <c r="P17" t="n">
-        <v>298.8021458705566</v>
+        <v>298.8021458705559</v>
       </c>
       <c r="Q17" t="n">
-        <v>146.707085077724</v>
+        <v>146.7070850777239</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>84.88644845097807</v>
+        <v>84.88644845097805</v>
       </c>
       <c r="K18" t="n">
         <v>272.8689245494787</v>
@@ -35972,16 +35972,16 @@
         <v>554.3608710703487</v>
       </c>
       <c r="N18" t="n">
-        <v>582.5633588331724</v>
+        <v>171.3675526809924</v>
       </c>
       <c r="O18" t="n">
         <v>456.6607193652785</v>
       </c>
       <c r="P18" t="n">
-        <v>134.3311094625145</v>
+        <v>353.7032971229173</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>191.8236184917771</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>58.71102593588896</v>
+        <v>58.71102593588895</v>
       </c>
       <c r="L19" t="n">
         <v>133.3170599052648</v>
@@ -36130,7 +36130,7 @@
         <v>480.6599097217443</v>
       </c>
       <c r="N20" t="n">
-        <v>466.9518043288013</v>
+        <v>466.9518043288014</v>
       </c>
       <c r="O20" t="n">
         <v>388.158651348888</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>84.88644845097807</v>
       </c>
       <c r="K21" t="n">
         <v>272.8689245494787</v>
       </c>
       <c r="L21" t="n">
-        <v>98.4182787650367</v>
+        <v>424.7276364662386</v>
       </c>
       <c r="M21" t="n">
-        <v>554.3608710703487</v>
+        <v>143.1650649181688</v>
       </c>
       <c r="N21" t="n">
-        <v>582.5633588331724</v>
+        <v>582.5633588331725</v>
       </c>
       <c r="O21" t="n">
         <v>456.6607193652785</v>
       </c>
       <c r="P21" t="n">
-        <v>353.7032971229173</v>
+        <v>353.7032971229174</v>
       </c>
       <c r="Q21" t="n">
         <v>191.8236184917771</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>58.71102593588896</v>
+        <v>58.71102593588897</v>
       </c>
       <c r="L22" t="n">
         <v>133.3170599052648</v>
@@ -36291,10 +36291,10 @@
         <v>152.2405674773827</v>
       </c>
       <c r="O22" t="n">
-        <v>129.5899631763557</v>
+        <v>129.5899631763558</v>
       </c>
       <c r="P22" t="n">
-        <v>89.38743320935654</v>
+        <v>89.38743320935656</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>303.0188097969257</v>
       </c>
       <c r="L23" t="n">
-        <v>426.396382752718</v>
+        <v>426.3963827527181</v>
       </c>
       <c r="M23" t="n">
         <v>480.6599097217443</v>
       </c>
       <c r="N23" t="n">
-        <v>466.9518043288012</v>
+        <v>466.9518043288014</v>
       </c>
       <c r="O23" t="n">
-        <v>388.158651348888</v>
+        <v>388.1586513488881</v>
       </c>
       <c r="P23" t="n">
         <v>298.802145870556</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>84.88644845097808</v>
       </c>
       <c r="K24" t="n">
         <v>272.8689245494787</v>
       </c>
       <c r="L24" t="n">
-        <v>424.7276364662386</v>
+        <v>424.7276364662387</v>
       </c>
       <c r="M24" t="n">
-        <v>228.0515133691469</v>
+        <v>554.3608710703487</v>
       </c>
       <c r="N24" t="n">
-        <v>582.5633588331724</v>
+        <v>171.3675526809924</v>
       </c>
       <c r="O24" t="n">
         <v>456.6607193652785</v>
       </c>
       <c r="P24" t="n">
-        <v>353.7032971229173</v>
+        <v>353.7032971229174</v>
       </c>
       <c r="Q24" t="n">
         <v>191.8236184917771</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>58.71102593588896</v>
+        <v>58.71102593588898</v>
       </c>
       <c r="L25" t="n">
         <v>133.3170599052648</v>
       </c>
       <c r="M25" t="n">
-        <v>152.6019725455076</v>
+        <v>152.6019725455077</v>
       </c>
       <c r="N25" t="n">
         <v>152.2405674773827</v>
       </c>
       <c r="O25" t="n">
-        <v>129.5899631763557</v>
+        <v>129.5899631763558</v>
       </c>
       <c r="P25" t="n">
-        <v>89.38743320935654</v>
+        <v>89.38743320935657</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>216.8496602798395</v>
+        <v>164.8490661667198</v>
       </c>
       <c r="K26" t="n">
-        <v>406.8069550502953</v>
+        <v>406.8069550502954</v>
       </c>
       <c r="L26" t="n">
         <v>530.1845280060877</v>
       </c>
       <c r="M26" t="n">
-        <v>584.4480549751139</v>
+        <v>584.4480549751141</v>
       </c>
       <c r="N26" t="n">
-        <v>570.739949582171</v>
+        <v>570.7399495821711</v>
       </c>
       <c r="O26" t="n">
-        <v>439.9462024891382</v>
+        <v>491.9467966022578</v>
       </c>
       <c r="P26" t="n">
         <v>402.5902911239257</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.4952303310937</v>
+        <v>250.4952303310938</v>
       </c>
       <c r="R26" t="n">
-        <v>43.90926701752811</v>
+        <v>43.90926701752814</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>84.88644845097804</v>
+        <v>84.88644845097808</v>
       </c>
       <c r="K27" t="n">
         <v>272.8689245494787</v>
       </c>
       <c r="L27" t="n">
-        <v>13.53183031405911</v>
+        <v>424.7276364662387</v>
       </c>
       <c r="M27" t="n">
-        <v>554.3608710703486</v>
+        <v>554.3608710703487</v>
       </c>
       <c r="N27" t="n">
-        <v>582.5633588331724</v>
+        <v>171.3675526809924</v>
       </c>
       <c r="O27" t="n">
-        <v>456.6607193652784</v>
+        <v>456.6607193652785</v>
       </c>
       <c r="P27" t="n">
-        <v>353.7032971229173</v>
+        <v>353.7032971229174</v>
       </c>
       <c r="Q27" t="n">
-        <v>191.823618491777</v>
+        <v>191.8236184917771</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.40316019393616</v>
+        <v>59.40316019393617</v>
       </c>
       <c r="K28" t="n">
         <v>162.4991711892587</v>
       </c>
       <c r="L28" t="n">
-        <v>237.1052051586344</v>
+        <v>237.1052051586345</v>
       </c>
       <c r="M28" t="n">
-        <v>256.3901177988773</v>
+        <v>256.3901177988774</v>
       </c>
       <c r="N28" t="n">
         <v>256.0287127307524</v>
       </c>
       <c r="O28" t="n">
-        <v>233.3781084297254</v>
+        <v>233.3781084297255</v>
       </c>
       <c r="P28" t="n">
         <v>193.1755784627263</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.48692375043983</v>
+        <v>83.48692375043984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>216.8496602798396</v>
+        <v>216.8496602798395</v>
       </c>
       <c r="K29" t="n">
-        <v>406.8069550502955</v>
+        <v>406.8069550502954</v>
       </c>
       <c r="L29" t="n">
-        <v>530.1845280060878</v>
+        <v>530.1845280060877</v>
       </c>
       <c r="M29" t="n">
-        <v>584.4480549751141</v>
+        <v>532.4474608619951</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7399495821711</v>
+        <v>570.739949582171</v>
       </c>
       <c r="O29" t="n">
         <v>491.9467966022578</v>
       </c>
       <c r="P29" t="n">
-        <v>402.5902911239258</v>
+        <v>402.5902911239257</v>
       </c>
       <c r="Q29" t="n">
-        <v>242.403903235501</v>
+        <v>250.4952303310937</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>43.90926701752812</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.40316019393623</v>
+        <v>59.40316019393616</v>
       </c>
       <c r="K31" t="n">
-        <v>162.4991711892588</v>
+        <v>162.4991711892587</v>
       </c>
       <c r="L31" t="n">
         <v>237.1052051586345</v>
       </c>
       <c r="M31" t="n">
-        <v>256.3901177988774</v>
+        <v>256.3901177988773</v>
       </c>
       <c r="N31" t="n">
-        <v>256.0287127307525</v>
+        <v>256.0287127307535</v>
       </c>
       <c r="O31" t="n">
-        <v>233.3781084297255</v>
+        <v>233.3781084297254</v>
       </c>
       <c r="P31" t="n">
-        <v>193.175578462725</v>
+        <v>193.1755784627263</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.4869237504399</v>
+        <v>83.48692375043983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>233.3815380094582</v>
+        <v>113.0615150264698</v>
       </c>
       <c r="K32" t="n">
-        <v>438.8329860713859</v>
+        <v>363.4599545440739</v>
       </c>
       <c r="L32" t="n">
         <v>426.396382752718</v>
@@ -37078,7 +37078,7 @@
         <v>480.6599097217443</v>
       </c>
       <c r="N32" t="n">
-        <v>466.9518043288013</v>
+        <v>602.7659806032614</v>
       </c>
       <c r="O32" t="n">
         <v>388.158651348888</v>
@@ -37087,10 +37087,10 @@
         <v>298.802145870556</v>
       </c>
       <c r="Q32" t="n">
-        <v>146.707085077724</v>
+        <v>282.5212613521841</v>
       </c>
       <c r="R32" t="n">
-        <v>75.93529803861861</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>84.88644845097807</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>272.8689245494787</v>
@@ -37154,10 +37154,10 @@
         <v>424.7276364662386</v>
       </c>
       <c r="M33" t="n">
-        <v>143.1650649181689</v>
+        <v>554.3608710703487</v>
       </c>
       <c r="N33" t="n">
-        <v>582.5633588331724</v>
+        <v>256.2540011319707</v>
       </c>
       <c r="O33" t="n">
         <v>456.6607193652785</v>
@@ -37230,7 +37230,7 @@
         <v>58.71102593588896</v>
       </c>
       <c r="L34" t="n">
-        <v>133.3170599052648</v>
+        <v>269.1312361797249</v>
       </c>
       <c r="M34" t="n">
         <v>152.6019725455076</v>
@@ -37239,13 +37239,13 @@
         <v>152.2405674773827</v>
       </c>
       <c r="O34" t="n">
-        <v>256.875337058434</v>
+        <v>129.5899631763557</v>
       </c>
       <c r="P34" t="n">
         <v>89.38743320935654</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.5129547715303</v>
+        <v>106.9841523791498</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>554.3608710703487</v>
       </c>
       <c r="N36" t="n">
-        <v>171.3675526809924</v>
+        <v>582.5633588331724</v>
       </c>
       <c r="O36" t="n">
         <v>456.6607193652785</v>
       </c>
       <c r="P36" t="n">
-        <v>353.7032971229173</v>
+        <v>134.3311094625145</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.8236184917771</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>84.88644845097807</v>
       </c>
       <c r="K39" t="n">
-        <v>53.49673688907589</v>
+        <v>272.8689245494787</v>
       </c>
       <c r="L39" t="n">
         <v>424.7276364662386</v>
@@ -37634,13 +37634,13 @@
         <v>582.5633588331724</v>
       </c>
       <c r="O39" t="n">
-        <v>456.6607193652785</v>
+        <v>45.46491321309853</v>
       </c>
       <c r="P39" t="n">
         <v>353.7032971229173</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>191.8236184917771</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.0615150264699</v>
+        <v>113.0615150264698</v>
       </c>
       <c r="K41" t="n">
         <v>303.0188097969257</v>
@@ -37798,7 +37798,7 @@
         <v>298.802145870556</v>
       </c>
       <c r="Q41" t="n">
-        <v>146.707085077724</v>
+        <v>146.7070850777234</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>84.88644845097807</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>272.8689245494787</v>
       </c>
       <c r="L42" t="n">
         <v>424.7276364662386</v>
@@ -37871,10 +37871,10 @@
         <v>582.5633588331724</v>
       </c>
       <c r="O42" t="n">
-        <v>456.6607193652785</v>
+        <v>45.46491321309853</v>
       </c>
       <c r="P42" t="n">
-        <v>300.2628639711943</v>
+        <v>353.7032971229173</v>
       </c>
       <c r="Q42" t="n">
         <v>191.8236184917771</v>
@@ -37944,19 +37944,19 @@
         <v>133.3170599052648</v>
       </c>
       <c r="M43" t="n">
-        <v>279.2822429749017</v>
+        <v>279.2822429749021</v>
       </c>
       <c r="N43" t="n">
-        <v>278.9208379067767</v>
+        <v>184.4090844510845</v>
       </c>
       <c r="O43" t="n">
         <v>129.5899631763557</v>
       </c>
       <c r="P43" t="n">
-        <v>121.5559501830674</v>
+        <v>216.0677036387511</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.3790489264642</v>
+        <v>106.3790489264646</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>84.88644845097807</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>272.8689245494787</v>
       </c>
       <c r="L45" t="n">
-        <v>424.7276364662386</v>
+        <v>13.53183031405865</v>
       </c>
       <c r="M45" t="n">
         <v>554.3608710703487</v>
@@ -38114,7 +38114,7 @@
         <v>353.7032971229173</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.383185340054</v>
+        <v>191.8236184917771</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>185.391296365283</v>
+        <v>185.3912963652835</v>
       </c>
       <c r="L46" t="n">
-        <v>133.3170599052648</v>
+        <v>165.4855768789666</v>
       </c>
       <c r="M46" t="n">
-        <v>164.4692680162886</v>
+        <v>279.2822429749021</v>
       </c>
       <c r="N46" t="n">
-        <v>278.9208379067767</v>
+        <v>152.2405674773827</v>
       </c>
       <c r="O46" t="n">
-        <v>256.2702336057498</v>
+        <v>129.5899631763557</v>
       </c>
       <c r="P46" t="n">
         <v>89.38743320935654</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>106.3790489264646</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
